--- a/Case study/Last Example for Depiction/Book1.xlsx
+++ b/Case study/Last Example for Depiction/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarzaminDigital\Desktop\PAPER\MATLAB\Case study\Last Example for Depiction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inosoft_04\Desktop\PAPER\MATLAB\CASE STUDY\Last Example for Depiction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F538AA2-5F50-4C10-840D-D2178A03B454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F12DFB-E7EF-433F-AAAD-77CA8063F5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{BA8DF64C-710B-4234-86D7-6C47FE483671}"/>
+    <workbookView xWindow="6945" yWindow="1740" windowWidth="17415" windowHeight="13635" activeTab="2" xr2:uid="{BA8DF64C-710B-4234-86D7-6C47FE483671}"/>
   </bookViews>
   <sheets>
     <sheet name="10 Sample problems" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,29 @@
     <sheet name="1 Sample for depiction (Smat)" sheetId="3" r:id="rId3"/>
     <sheet name="Scheduling" sheetId="5" r:id="rId4"/>
     <sheet name="New Precedency" sheetId="4" r:id="rId5"/>
-    <sheet name="Beta" sheetId="6" r:id="rId6"/>
+    <sheet name="Costs" sheetId="7" r:id="rId6"/>
+    <sheet name="Beta" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="101">
   <si>
     <t>Inf</t>
   </si>
@@ -321,6 +331,18 @@
   </si>
   <si>
     <t>App Test</t>
+  </si>
+  <si>
+    <t>13-B</t>
+  </si>
+  <si>
+    <t>13-A</t>
+  </si>
+  <si>
+    <t>17-A</t>
+  </si>
+  <si>
+    <t>17-B</t>
   </si>
 </sst>
 </file>
@@ -860,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,28 +1076,43 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1133,39 +1170,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,55 +1571,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B2" s="83">
-        <v>1</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
+      <c r="B2" s="88">
+        <v>1</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
       <c r="AD2" s="3">
         <v>2</v>
       </c>
-      <c r="AF2" s="83">
+      <c r="AF2" s="88">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2169,55 +2173,55 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B9" s="83">
+      <c r="B9" s="88">
         <v>4</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="N9" s="83">
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="N9" s="88">
         <v>5</v>
       </c>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AG9" s="83">
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AG9" s="88">
         <v>6</v>
       </c>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AM9" s="83">
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AM9" s="88">
         <v>7</v>
       </c>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
+      <c r="AN9" s="88"/>
+      <c r="AO9" s="88"/>
+      <c r="AP9" s="88"/>
+      <c r="AQ9" s="88"/>
+      <c r="AR9" s="88"/>
+      <c r="AS9" s="88"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2765,65 +2769,65 @@
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+      <c r="A16" s="88">
         <v>8</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="N16" s="83">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="N16" s="88">
         <v>9</v>
       </c>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="T16" s="83">
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="T16" s="88">
         <v>10</v>
       </c>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="83"/>
-      <c r="AM16" s="83"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="83"/>
-      <c r="AP16" s="83"/>
-      <c r="AQ16" s="83"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="83"/>
-      <c r="AT16" s="83"/>
-      <c r="AU16" s="83"/>
-      <c r="AV16" s="83"/>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="83"/>
-      <c r="AY16" s="83"/>
-      <c r="AZ16" s="83"/>
-      <c r="BA16" s="83"/>
-      <c r="BB16" s="83"/>
-      <c r="BC16" s="83"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="88"/>
+      <c r="AJ16" s="88"/>
+      <c r="AK16" s="88"/>
+      <c r="AL16" s="88"/>
+      <c r="AM16" s="88"/>
+      <c r="AN16" s="88"/>
+      <c r="AO16" s="88"/>
+      <c r="AP16" s="88"/>
+      <c r="AQ16" s="88"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="88"/>
+      <c r="AT16" s="88"/>
+      <c r="AU16" s="88"/>
+      <c r="AV16" s="88"/>
+      <c r="AW16" s="88"/>
+      <c r="AX16" s="88"/>
+      <c r="AY16" s="88"/>
+      <c r="AZ16" s="88"/>
+      <c r="BA16" s="88"/>
+      <c r="BB16" s="88"/>
+      <c r="BC16" s="88"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3491,57 +3495,57 @@
       <c r="B23" s="3">
         <v>11</v>
       </c>
-      <c r="D23" s="83">
+      <c r="D23" s="88">
         <v>12</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="P23" s="83">
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="P23" s="88">
         <v>13</v>
       </c>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="83"/>
-      <c r="AJ23" s="83"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="83"/>
-      <c r="AM23" s="83"/>
-      <c r="AN23" s="83"/>
-      <c r="AO23" s="83"/>
-      <c r="AP23" s="83"/>
-      <c r="AQ23" s="83"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="83"/>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="83"/>
-      <c r="AV23" s="83"/>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="83"/>
-      <c r="AY23" s="83"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="88"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="88"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="88"/>
+      <c r="AJ23" s="88"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="88"/>
+      <c r="AM23" s="88"/>
+      <c r="AN23" s="88"/>
+      <c r="AO23" s="88"/>
+      <c r="AP23" s="88"/>
+      <c r="AQ23" s="88"/>
+      <c r="AR23" s="88"/>
+      <c r="AS23" s="88"/>
+      <c r="AT23" s="88"/>
+      <c r="AU23" s="88"/>
+      <c r="AV23" s="88"/>
+      <c r="AW23" s="88"/>
+      <c r="AX23" s="88"/>
+      <c r="AY23" s="88"/>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -4161,58 +4165,58 @@
       <c r="D30" s="3">
         <v>15</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="88">
         <v>16</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="K30" s="83">
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="K30" s="88">
         <v>17</v>
       </c>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="Y30" s="83">
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="Y30" s="88">
         <v>18</v>
       </c>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="83"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="83"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="83"/>
-      <c r="AI30" s="83"/>
-      <c r="AJ30" s="83"/>
-      <c r="AK30" s="83"/>
-      <c r="AL30" s="83"/>
-      <c r="AM30" s="83"/>
-      <c r="AN30" s="83"/>
-      <c r="AO30" s="83"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="88"/>
+      <c r="AI30" s="88"/>
+      <c r="AJ30" s="88"/>
+      <c r="AK30" s="88"/>
+      <c r="AL30" s="88"/>
+      <c r="AM30" s="88"/>
+      <c r="AN30" s="88"/>
+      <c r="AO30" s="88"/>
       <c r="AQ30" s="3">
         <v>19</v>
       </c>
-      <c r="AS30" s="83">
+      <c r="AS30" s="88">
         <v>20</v>
       </c>
-      <c r="AT30" s="83"/>
-      <c r="AU30" s="83"/>
-      <c r="AV30" s="83"/>
-      <c r="AW30" s="83"/>
-      <c r="AX30" s="83"/>
-      <c r="AY30" s="83"/>
+      <c r="AT30" s="88"/>
+      <c r="AU30" s="88"/>
+      <c r="AV30" s="88"/>
+      <c r="AW30" s="88"/>
+      <c r="AX30" s="88"/>
+      <c r="AY30" s="88"/>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -5857,18 +5861,18 @@
       <c r="AA51" s="40">
         <v>28</v>
       </c>
-      <c r="AR51" s="76" t="s">
+      <c r="AR51" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="AS51" s="76"/>
-      <c r="AT51" s="76"/>
-      <c r="AU51" s="76"/>
-      <c r="AV51" s="76"/>
-      <c r="AW51" s="76"/>
-      <c r="AX51" s="76"/>
-      <c r="AY51" s="76"/>
-      <c r="AZ51" s="76"/>
-      <c r="BA51" s="76"/>
+      <c r="AS51" s="81"/>
+      <c r="AT51" s="81"/>
+      <c r="AU51" s="81"/>
+      <c r="AV51" s="81"/>
+      <c r="AW51" s="81"/>
+      <c r="AX51" s="81"/>
+      <c r="AY51" s="81"/>
+      <c r="AZ51" s="81"/>
+      <c r="BA51" s="81"/>
     </row>
     <row r="52" spans="1:63" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
@@ -5884,10 +5888,10 @@
         <f>AK52</f>
         <v>17</v>
       </c>
-      <c r="AM52" s="79" t="s">
+      <c r="AM52" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AN52" s="79"/>
+      <c r="AN52" s="84"/>
       <c r="AO52" s="32"/>
       <c r="AR52" s="1">
         <v>1</v>
@@ -5967,10 +5971,10 @@
         <f>AL52+AK53</f>
         <v>26</v>
       </c>
-      <c r="AM53" s="80" t="s">
+      <c r="AM53" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AN53" s="80"/>
+      <c r="AN53" s="85"/>
       <c r="AO53" s="32"/>
       <c r="AP53" s="1">
         <f>AL52+1</f>
@@ -6057,10 +6061,10 @@
         <f t="shared" ref="AL54:AL58" si="0">AL53+AK54</f>
         <v>35</v>
       </c>
-      <c r="AM54" s="81" t="s">
+      <c r="AM54" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AN54" s="81"/>
+      <c r="AN54" s="86"/>
       <c r="AO54" s="24" t="s">
         <v>19</v>
       </c>
@@ -6152,10 +6156,10 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AM55" s="82" t="s">
+      <c r="AM55" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AN55" s="82"/>
+      <c r="AN55" s="87"/>
       <c r="AO55" s="26" t="s">
         <v>18</v>
       </c>
@@ -6209,10 +6213,10 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="AM56" s="73" t="s">
+      <c r="AM56" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AN56" s="73"/>
+      <c r="AN56" s="78"/>
       <c r="AO56" s="26" t="s">
         <v>20</v>
       </c>
@@ -6281,10 +6285,10 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="AM57" s="73" t="s">
+      <c r="AM57" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AN57" s="73"/>
+      <c r="AN57" s="78"/>
       <c r="AO57" s="26" t="s">
         <v>21</v>
       </c>
@@ -6353,10 +6357,10 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="AM58" s="74" t="s">
+      <c r="AM58" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AN58" s="74"/>
+      <c r="AN58" s="79"/>
       <c r="AO58" s="29" t="s">
         <v>22</v>
       </c>
@@ -6430,10 +6434,10 @@
         <f>AL64+AK59</f>
         <v>142</v>
       </c>
-      <c r="AM59" s="77" t="s">
+      <c r="AM59" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="AN59" s="77"/>
+      <c r="AN59" s="82"/>
       <c r="AO59" s="32"/>
       <c r="AP59" s="1">
         <f>AL64+1</f>
@@ -6583,10 +6587,10 @@
         <f>AL58+AK60</f>
         <v>83</v>
       </c>
-      <c r="AM60" s="78" t="s">
+      <c r="AM60" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AN60" s="78"/>
+      <c r="AN60" s="83"/>
       <c r="AO60" s="24" t="s">
         <v>19</v>
       </c>
@@ -6624,10 +6628,10 @@
         <f>AL60+AK61</f>
         <v>95</v>
       </c>
-      <c r="AM61" s="76" t="s">
+      <c r="AM61" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AN61" s="76"/>
+      <c r="AN61" s="81"/>
       <c r="AO61" s="26" t="s">
         <v>18</v>
       </c>
@@ -6705,10 +6709,10 @@
         <f>AL61+AK62</f>
         <v>107</v>
       </c>
-      <c r="AM62" s="73" t="s">
+      <c r="AM62" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AN62" s="73"/>
+      <c r="AN62" s="78"/>
       <c r="AO62" s="26" t="s">
         <v>20</v>
       </c>
@@ -6830,10 +6834,10 @@
         <f>AL62+AK63</f>
         <v>119</v>
       </c>
-      <c r="AM63" s="73" t="s">
+      <c r="AM63" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="AN63" s="73"/>
+      <c r="AN63" s="78"/>
       <c r="AO63" s="26" t="s">
         <v>21</v>
       </c>
@@ -6899,10 +6903,10 @@
         <f>AL63+AK64</f>
         <v>131</v>
       </c>
-      <c r="AM64" s="74" t="s">
+      <c r="AM64" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AN64" s="74"/>
+      <c r="AN64" s="79"/>
       <c r="AO64" s="29" t="s">
         <v>22</v>
       </c>
@@ -6949,10 +6953,10 @@
         <f>AL59+AK65</f>
         <v>158</v>
       </c>
-      <c r="AM65" s="75" t="s">
+      <c r="AM65" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AN65" s="75"/>
+      <c r="AN65" s="80"/>
       <c r="AO65" s="32"/>
       <c r="AP65" s="1">
         <f>AL59+1</f>
@@ -7110,8 +7114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE846CD-2EE7-426D-A111-47D9FF100C30}">
   <dimension ref="A1:BE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,10 +7133,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="70">
+      <c r="A1" s="2">
         <v>8</v>
       </c>
-      <c r="B1" s="70">
+      <c r="B1" s="2">
         <v>11</v>
       </c>
       <c r="C1" s="4">
@@ -7141,16 +7145,16 @@
       <c r="D1" s="4">
         <v>24</v>
       </c>
-      <c r="E1" s="70">
+      <c r="E1" s="2">
         <v>16</v>
       </c>
-      <c r="F1" s="70">
+      <c r="F1" s="2">
         <v>17</v>
       </c>
-      <c r="G1" s="70">
+      <c r="G1" s="2">
         <v>15</v>
       </c>
-      <c r="H1" s="70">
+      <c r="H1" s="2">
         <v>13</v>
       </c>
       <c r="I1" s="4">
@@ -7159,99 +7163,99 @@
       <c r="J1" s="4">
         <v>20</v>
       </c>
-      <c r="K1" s="70">
+      <c r="K1" s="2">
         <v>6</v>
       </c>
-      <c r="L1" s="70">
+      <c r="L1" s="2">
         <v>9</v>
       </c>
-      <c r="M1" s="70">
+      <c r="M1" s="2">
         <v>7</v>
       </c>
-      <c r="N1" s="70">
+      <c r="N1" s="2">
         <v>10</v>
       </c>
       <c r="O1" s="4">
         <v>25</v>
       </c>
-      <c r="P1" s="70">
+      <c r="P1" s="2">
         <v>4</v>
       </c>
-      <c r="Q1" s="70">
+      <c r="Q1" s="2">
         <v>14</v>
       </c>
-      <c r="R1" s="70">
-        <v>1</v>
-      </c>
-      <c r="S1" s="70">
-        <v>2</v>
-      </c>
-      <c r="T1" s="70">
+      <c r="R1" s="2">
+        <v>1</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2</v>
+      </c>
+      <c r="T1" s="2">
         <v>12</v>
       </c>
-      <c r="U1" s="70">
+      <c r="U1" s="2">
         <v>5</v>
       </c>
-      <c r="V1" s="70">
+      <c r="V1" s="2">
         <v>3</v>
       </c>
-      <c r="W1" s="67">
+      <c r="W1" s="5">
         <v>35</v>
       </c>
-      <c r="X1" s="67">
+      <c r="X1" s="5">
         <v>30</v>
       </c>
-      <c r="Y1" s="92">
+      <c r="Y1" s="67">
         <v>80</v>
       </c>
-      <c r="Z1" s="92">
+      <c r="Z1" s="67">
         <v>72</v>
       </c>
-      <c r="AA1" s="92">
+      <c r="AA1" s="67">
         <v>74</v>
       </c>
       <c r="AB1" s="16">
         <v>86</v>
       </c>
-      <c r="AC1" s="67">
+      <c r="AC1" s="5">
         <v>31</v>
       </c>
-      <c r="AD1" s="67">
+      <c r="AD1" s="5">
         <v>34</v>
       </c>
       <c r="AE1" s="16">
         <v>84</v>
       </c>
-      <c r="AF1" s="92">
+      <c r="AF1" s="67">
         <v>81</v>
       </c>
       <c r="AG1" s="16">
         <v>93</v>
       </c>
-      <c r="AH1" s="65">
+      <c r="AH1" s="3">
         <v>105</v>
       </c>
-      <c r="AI1" s="92">
+      <c r="AI1" s="67">
         <v>77</v>
       </c>
-      <c r="AJ1" s="92">
+      <c r="AJ1" s="67">
         <v>78</v>
       </c>
       <c r="AK1" s="16">
         <v>90</v>
       </c>
-      <c r="AL1" s="92">
+      <c r="AL1" s="67">
         <v>73</v>
       </c>
-      <c r="AM1" s="67">
+      <c r="AM1" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="70">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="4">
@@ -7260,16 +7264,16 @@
       <c r="D2" s="4">
         <v>13</v>
       </c>
-      <c r="E2" s="70">
-        <v>1</v>
-      </c>
-      <c r="F2" s="70">
-        <v>1</v>
-      </c>
-      <c r="G2" s="70">
-        <v>1</v>
-      </c>
-      <c r="H2" s="70">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
       </c>
       <c r="I2" s="4">
@@ -7278,147 +7282,115 @@
       <c r="J2" s="4">
         <v>13</v>
       </c>
-      <c r="K2" s="70">
-        <v>1</v>
-      </c>
-      <c r="L2" s="70">
-        <v>1</v>
-      </c>
-      <c r="M2" s="70">
-        <v>1</v>
-      </c>
-      <c r="N2" s="70">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
         <v>1</v>
       </c>
       <c r="O2" s="4">
         <v>13</v>
       </c>
-      <c r="P2" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="70">
-        <v>1</v>
-      </c>
-      <c r="R2" s="70">
-        <v>1</v>
-      </c>
-      <c r="S2" s="70">
-        <v>1</v>
-      </c>
-      <c r="T2" s="70">
-        <v>1</v>
-      </c>
-      <c r="U2" s="70">
-        <v>1</v>
-      </c>
-      <c r="V2" s="70">
-        <v>1</v>
-      </c>
-      <c r="W2" s="67">
-        <v>2</v>
-      </c>
-      <c r="X2" s="67">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="92">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="67">
         <v>3</v>
       </c>
-      <c r="Z2" s="92">
+      <c r="Z2" s="67">
         <v>3</v>
       </c>
-      <c r="AA2" s="92">
+      <c r="AA2" s="67">
         <v>3</v>
       </c>
       <c r="AB2" s="16">
         <v>18</v>
       </c>
-      <c r="AC2" s="67">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="67">
+      <c r="AC2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="5">
         <v>2</v>
       </c>
       <c r="AE2" s="16">
         <v>18</v>
       </c>
-      <c r="AF2" s="92">
+      <c r="AF2" s="67">
         <v>3</v>
       </c>
       <c r="AG2" s="16">
         <v>18</v>
       </c>
-      <c r="AH2" s="65">
+      <c r="AH2" s="3">
         <v>15</v>
       </c>
-      <c r="AI2" s="92">
+      <c r="AI2" s="67">
         <v>3</v>
       </c>
-      <c r="AJ2" s="92">
+      <c r="AJ2" s="67">
         <v>3</v>
       </c>
       <c r="AK2" s="16">
         <v>18</v>
       </c>
-      <c r="AL2" s="92">
+      <c r="AL2" s="67">
         <v>3</v>
       </c>
-      <c r="AM2" s="67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-    </row>
+      <c r="AM2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>85</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="67">
         <v>75</v>
       </c>
       <c r="C4" s="16">
         <v>87</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="67">
         <v>79</v>
       </c>
       <c r="E4" s="16">
         <v>91</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="13">
         <v>102</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="67">
         <v>76</v>
       </c>
       <c r="H4" s="16">
@@ -7433,7 +7405,7 @@
       <c r="K4" s="56">
         <v>36</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="5">
         <v>28</v>
       </c>
       <c r="M4" s="56">
@@ -7448,7 +7420,7 @@
       <c r="P4" s="4">
         <v>23</v>
       </c>
-      <c r="Q4" s="92">
+      <c r="Q4" s="67">
         <v>82</v>
       </c>
       <c r="R4" s="16">
@@ -7469,10 +7441,10 @@
       <c r="W4" s="4">
         <v>26</v>
       </c>
-      <c r="X4" s="93">
+      <c r="X4" s="68">
         <v>54</v>
       </c>
-      <c r="Y4" s="92">
+      <c r="Y4" s="67">
         <v>83</v>
       </c>
       <c r="Z4" s="16">
@@ -7481,16 +7453,16 @@
       <c r="AA4" s="16">
         <v>95</v>
       </c>
-      <c r="AB4" s="65">
+      <c r="AB4" s="3">
         <v>97</v>
       </c>
-      <c r="AC4" s="65">
+      <c r="AC4" s="3">
         <v>98</v>
       </c>
-      <c r="AD4" s="94">
+      <c r="AD4" s="69">
         <v>99</v>
       </c>
-      <c r="AE4" s="67">
+      <c r="AE4" s="5">
         <v>32</v>
       </c>
       <c r="AF4" s="56">
@@ -7499,13 +7471,13 @@
       <c r="AG4" s="8">
         <v>50</v>
       </c>
-      <c r="AH4" s="67">
+      <c r="AH4" s="5">
         <v>33</v>
       </c>
       <c r="AI4" s="56">
         <v>42</v>
       </c>
-      <c r="AJ4" s="67">
+      <c r="AJ4" s="5">
         <v>29</v>
       </c>
       <c r="AK4" s="56">
@@ -7514,7 +7486,7 @@
       <c r="AL4" s="8">
         <v>47</v>
       </c>
-      <c r="AM4" s="68">
+      <c r="AM4" s="13">
         <v>107</v>
       </c>
     </row>
@@ -7522,22 +7494,22 @@
       <c r="A5" s="16">
         <v>18</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="67">
         <v>3</v>
       </c>
       <c r="C5" s="16">
         <v>18</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="67">
         <v>3</v>
       </c>
       <c r="E5" s="16">
         <v>18</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="13">
         <v>12</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="67">
         <v>3</v>
       </c>
       <c r="H5" s="16">
@@ -7552,7 +7524,7 @@
       <c r="K5" s="56">
         <v>17</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="5">
         <v>2</v>
       </c>
       <c r="M5" s="56">
@@ -7567,7 +7539,7 @@
       <c r="P5" s="4">
         <v>13</v>
       </c>
-      <c r="Q5" s="92">
+      <c r="Q5" s="67">
         <v>3</v>
       </c>
       <c r="R5" s="16">
@@ -7588,10 +7560,10 @@
       <c r="W5" s="4">
         <v>13</v>
       </c>
-      <c r="X5" s="93">
+      <c r="X5" s="68">
         <v>10</v>
       </c>
-      <c r="Y5" s="92">
+      <c r="Y5" s="67">
         <v>3</v>
       </c>
       <c r="Z5" s="16">
@@ -7600,16 +7572,16 @@
       <c r="AA5" s="16">
         <v>18</v>
       </c>
-      <c r="AB5" s="65">
+      <c r="AB5" s="3">
         <v>15</v>
       </c>
-      <c r="AC5" s="65">
+      <c r="AC5" s="3">
         <v>15</v>
       </c>
-      <c r="AD5" s="94">
+      <c r="AD5" s="69">
         <v>11</v>
       </c>
-      <c r="AE5" s="67">
+      <c r="AE5" s="5">
         <v>2</v>
       </c>
       <c r="AF5" s="56">
@@ -7618,13 +7590,13 @@
       <c r="AG5" s="8">
         <v>7</v>
       </c>
-      <c r="AH5" s="67">
+      <c r="AH5" s="5">
         <v>2</v>
       </c>
       <c r="AI5" s="56">
         <v>17</v>
       </c>
-      <c r="AJ5" s="67">
+      <c r="AJ5" s="5">
         <v>2</v>
       </c>
       <c r="AK5" s="56">
@@ -7633,43 +7605,11 @@
       <c r="AL5" s="8">
         <v>7</v>
       </c>
-      <c r="AM5" s="68">
+      <c r="AM5" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-    </row>
+    <row r="6" spans="1:39" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>100</v>
@@ -7677,19 +7617,19 @@
       <c r="B7" s="14">
         <v>58</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="68">
         <v>62</v>
       </c>
       <c r="D7" s="57">
         <v>61</v>
       </c>
-      <c r="E7" s="93">
+      <c r="E7" s="68">
         <v>55</v>
       </c>
-      <c r="F7" s="93">
+      <c r="F7" s="68">
         <v>57</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="13">
         <v>104</v>
       </c>
       <c r="H7" s="8">
@@ -7713,7 +7653,7 @@
       <c r="N7" s="4">
         <v>113</v>
       </c>
-      <c r="O7" s="95">
+      <c r="O7" s="70">
         <v>60</v>
       </c>
       <c r="P7" s="56">
@@ -7722,7 +7662,7 @@
       <c r="Q7" s="4">
         <v>117</v>
       </c>
-      <c r="R7" s="69">
+      <c r="R7" s="65">
         <v>106</v>
       </c>
       <c r="S7" s="8">
@@ -7731,7 +7671,7 @@
       <c r="T7" s="8">
         <v>69</v>
       </c>
-      <c r="U7" s="93">
+      <c r="U7" s="68">
         <v>109</v>
       </c>
       <c r="V7" s="4">
@@ -7740,16 +7680,16 @@
       <c r="W7" s="4">
         <v>110</v>
       </c>
-      <c r="X7" s="69">
+      <c r="X7" s="65">
         <v>96</v>
       </c>
-      <c r="Y7" s="69">
+      <c r="Y7" s="65">
         <v>125</v>
       </c>
-      <c r="Z7" s="95">
+      <c r="Z7" s="70">
         <v>63</v>
       </c>
-      <c r="AA7" s="93">
+      <c r="AA7" s="68">
         <v>70</v>
       </c>
       <c r="AB7" s="4">
@@ -7758,7 +7698,7 @@
       <c r="AC7" s="56">
         <v>39</v>
       </c>
-      <c r="AD7" s="94">
+      <c r="AD7" s="69">
         <v>129</v>
       </c>
       <c r="AE7" s="4">
@@ -7767,13 +7707,13 @@
       <c r="AF7" s="8">
         <v>46</v>
       </c>
-      <c r="AG7" s="93">
+      <c r="AG7" s="68">
         <v>64</v>
       </c>
       <c r="AH7" s="8">
         <v>53</v>
       </c>
-      <c r="AI7" s="96">
+      <c r="AI7" s="71">
         <v>71</v>
       </c>
       <c r="AJ7" s="4">
@@ -7785,7 +7725,7 @@
       <c r="AL7" s="4">
         <v>124</v>
       </c>
-      <c r="AM7" s="69">
+      <c r="AM7" s="65">
         <v>122</v>
       </c>
     </row>
@@ -7796,19 +7736,19 @@
       <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="68">
         <v>10</v>
       </c>
       <c r="D8" s="57">
         <v>6</v>
       </c>
-      <c r="E8" s="93">
+      <c r="E8" s="68">
         <v>10</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="68">
         <v>10</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="13">
         <v>12</v>
       </c>
       <c r="H8" s="8">
@@ -7832,7 +7772,7 @@
       <c r="N8" s="4">
         <v>13</v>
       </c>
-      <c r="O8" s="95">
+      <c r="O8" s="70">
         <v>4</v>
       </c>
       <c r="P8" s="56">
@@ -7841,7 +7781,7 @@
       <c r="Q8" s="4">
         <v>13</v>
       </c>
-      <c r="R8" s="69">
+      <c r="R8" s="65">
         <v>14</v>
       </c>
       <c r="S8" s="8">
@@ -7850,7 +7790,7 @@
       <c r="T8" s="8">
         <v>7</v>
       </c>
-      <c r="U8" s="93">
+      <c r="U8" s="68">
         <v>10</v>
       </c>
       <c r="V8" s="4">
@@ -7859,16 +7799,16 @@
       <c r="W8" s="4">
         <v>13</v>
       </c>
-      <c r="X8" s="69">
+      <c r="X8" s="65">
         <v>14</v>
       </c>
-      <c r="Y8" s="69">
+      <c r="Y8" s="65">
         <v>14</v>
       </c>
-      <c r="Z8" s="95">
+      <c r="Z8" s="70">
         <v>4</v>
       </c>
-      <c r="AA8" s="93">
+      <c r="AA8" s="68">
         <v>10</v>
       </c>
       <c r="AB8" s="4">
@@ -7877,7 +7817,7 @@
       <c r="AC8" s="56">
         <v>17</v>
       </c>
-      <c r="AD8" s="94">
+      <c r="AD8" s="69">
         <v>11</v>
       </c>
       <c r="AE8" s="4">
@@ -7886,13 +7826,13 @@
       <c r="AF8" s="8">
         <v>7</v>
       </c>
-      <c r="AG8" s="93">
+      <c r="AG8" s="68">
         <v>10</v>
       </c>
       <c r="AH8" s="8">
         <v>7</v>
       </c>
-      <c r="AI8" s="96">
+      <c r="AI8" s="71">
         <v>9</v>
       </c>
       <c r="AJ8" s="4">
@@ -7904,60 +7844,28 @@
       <c r="AL8" s="4">
         <v>13</v>
       </c>
-      <c r="AM8" s="69">
+      <c r="AM8" s="65">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-    </row>
+    <row r="9" spans="1:39" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="94">
+      <c r="A10" s="69">
         <v>103</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="65">
         <v>127</v>
       </c>
       <c r="C10" s="14">
         <v>67</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="69">
         <v>126</v>
       </c>
       <c r="E10" s="4">
         <v>108</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="65">
         <v>120</v>
       </c>
       <c r="G10" s="8">
@@ -7969,58 +7877,58 @@
       <c r="I10" s="4">
         <v>119</v>
       </c>
-      <c r="J10" s="93">
+      <c r="J10" s="68">
         <v>131</v>
       </c>
       <c r="K10" s="4">
         <v>116</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="13">
         <v>128</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="68">
         <v>143</v>
       </c>
-      <c r="N10" s="93">
+      <c r="N10" s="68">
         <v>157</v>
       </c>
-      <c r="O10" s="93">
+      <c r="O10" s="68">
         <v>156</v>
       </c>
-      <c r="P10" s="93">
+      <c r="P10" s="68">
         <v>151</v>
       </c>
-      <c r="Q10" s="93">
+      <c r="Q10" s="68">
         <v>150</v>
       </c>
-      <c r="R10" s="93">
+      <c r="R10" s="68">
         <v>147</v>
       </c>
-      <c r="S10" s="93">
+      <c r="S10" s="68">
         <v>152</v>
       </c>
-      <c r="T10" s="93">
+      <c r="T10" s="68">
         <v>145</v>
       </c>
-      <c r="U10" s="93">
+      <c r="U10" s="68">
         <v>144</v>
       </c>
-      <c r="V10" s="93">
+      <c r="V10" s="68">
         <v>148</v>
       </c>
-      <c r="W10" s="93">
+      <c r="W10" s="68">
         <v>146</v>
       </c>
-      <c r="X10" s="93">
+      <c r="X10" s="68">
         <v>149</v>
       </c>
-      <c r="Y10" s="93">
+      <c r="Y10" s="68">
         <v>153</v>
       </c>
-      <c r="Z10" s="93">
+      <c r="Z10" s="68">
         <v>154</v>
       </c>
-      <c r="AA10" s="93">
+      <c r="AA10" s="68">
         <v>155</v>
       </c>
       <c r="AB10" s="57">
@@ -8061,22 +7969,22 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="94">
+      <c r="A11" s="69">
         <v>11</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="65">
         <v>14</v>
       </c>
       <c r="C11" s="14">
         <v>5</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="69">
         <v>11</v>
       </c>
       <c r="E11" s="4">
         <v>13</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="65">
         <v>14</v>
       </c>
       <c r="G11" s="8">
@@ -8088,58 +7996,58 @@
       <c r="I11" s="4">
         <v>13</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="68">
         <v>10</v>
       </c>
       <c r="K11" s="4">
         <v>13</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="13">
         <v>12</v>
       </c>
-      <c r="M11" s="93">
+      <c r="M11" s="68">
         <v>10</v>
       </c>
-      <c r="N11" s="93">
+      <c r="N11" s="68">
         <v>10</v>
       </c>
-      <c r="O11" s="93">
+      <c r="O11" s="68">
         <v>10</v>
       </c>
-      <c r="P11" s="93">
+      <c r="P11" s="68">
         <v>10</v>
       </c>
-      <c r="Q11" s="93">
+      <c r="Q11" s="68">
         <v>10</v>
       </c>
-      <c r="R11" s="93">
+      <c r="R11" s="68">
         <v>10</v>
       </c>
-      <c r="S11" s="93">
+      <c r="S11" s="68">
         <v>10</v>
       </c>
-      <c r="T11" s="93">
+      <c r="T11" s="68">
         <v>10</v>
       </c>
-      <c r="U11" s="93">
+      <c r="U11" s="68">
         <v>10</v>
       </c>
-      <c r="V11" s="93">
+      <c r="V11" s="68">
         <v>10</v>
       </c>
-      <c r="W11" s="93">
+      <c r="W11" s="68">
         <v>10</v>
       </c>
-      <c r="X11" s="93">
+      <c r="X11" s="68">
         <v>10</v>
       </c>
-      <c r="Y11" s="93">
+      <c r="Y11" s="68">
         <v>10</v>
       </c>
-      <c r="Z11" s="93">
+      <c r="Z11" s="68">
         <v>10</v>
       </c>
-      <c r="AA11" s="93">
+      <c r="AA11" s="68">
         <v>10</v>
       </c>
       <c r="AB11" s="57">
@@ -8179,202 +8087,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-    </row>
+    <row r="12" spans="1:39" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>136</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="68">
         <v>158</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="68">
         <v>10</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-    </row>
-    <row r="15" spans="1:39" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-    </row>
+    </row>
+    <row r="15" spans="1:39" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:57" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97">
-        <v>1</v>
-      </c>
-      <c r="B19" s="98">
+      <c r="A19" s="72">
+        <v>1</v>
+      </c>
+      <c r="B19" s="73">
         <v>8</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="74">
         <v>11</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D19" s="74">
         <v>16</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="74">
         <v>17</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="74">
         <v>15</v>
       </c>
-      <c r="G19" s="99">
+      <c r="G19" s="74">
         <v>13</v>
       </c>
-      <c r="H19" s="99">
+      <c r="H19" s="74">
         <v>6</v>
       </c>
-      <c r="I19" s="99">
+      <c r="I19" s="74">
         <v>9</v>
       </c>
-      <c r="J19" s="99">
+      <c r="J19" s="74">
         <v>7</v>
       </c>
       <c r="K19" s="60">
@@ -8401,30 +8161,9 @@
       <c r="R19" s="61">
         <v>3</v>
       </c>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
     </row>
     <row r="20" spans="1:57" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97">
+      <c r="A20" s="72">
         <v>2</v>
       </c>
       <c r="B20" s="62">
@@ -8454,38 +8193,9 @@
       <c r="J20" s="64">
         <v>29</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
     </row>
     <row r="21" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="97">
+      <c r="A21" s="72">
         <v>3</v>
       </c>
       <c r="B21" s="62">
@@ -8524,80 +8234,27 @@
       <c r="M21" s="64">
         <v>83</v>
       </c>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
     </row>
     <row r="22" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="97">
+      <c r="A22" s="72">
         <v>4</v>
       </c>
-      <c r="B22" s="66">
+      <c r="B22" s="1">
         <v>60</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="1">
         <v>63</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
       <c r="AQ22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AR22" s="1">
         <v>17</v>
       </c>
-      <c r="AS22" s="83" t="s">
+      <c r="AS22" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AT22" s="83"/>
+      <c r="AT22" s="88"/>
       <c r="AU22" s="1">
         <v>1</v>
       </c>
@@ -8619,16 +8276,16 @@
       </c>
     </row>
     <row r="23" spans="1:57" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="97">
+      <c r="A23" s="72">
         <v>5</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="1">
         <v>58</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="1">
         <v>56</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="1">
         <v>67</v>
       </c>
       <c r="E23" s="59">
@@ -8664,40 +8321,16 @@
       <c r="O23" s="61">
         <v>136</v>
       </c>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
       <c r="AQ23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AR23" s="1">
         <v>9</v>
       </c>
-      <c r="AS23" s="88" t="s">
+      <c r="AS23" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="AT23" s="88"/>
+      <c r="AT23" s="93"/>
       <c r="AU23" s="1">
         <f>AV22+1</f>
         <v>18</v>
@@ -8732,61 +8365,25 @@
       </c>
     </row>
     <row r="24" spans="1:57" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97">
+      <c r="A24" s="72">
         <v>6</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="1">
         <v>61</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="1">
         <v>59</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
       <c r="AQ24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AR24" s="1">
         <v>9</v>
       </c>
-      <c r="AS24" s="89" t="s">
+      <c r="AS24" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AT24" s="89"/>
+      <c r="AT24" s="94"/>
       <c r="AU24" s="1">
         <f t="shared" ref="AU24:AU35" si="0">AV23+1</f>
         <v>27</v>
@@ -8809,79 +8406,52 @@
       </c>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A25" s="97">
+      <c r="A25" s="72">
         <v>7</v>
       </c>
-      <c r="B25" s="66">
+      <c r="B25" s="1">
         <v>45</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="1">
         <v>49</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="1">
         <v>50</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="1">
         <v>47</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="1">
         <v>52</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="1">
         <v>51</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="1">
         <v>69</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="1">
         <v>46</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="1">
         <v>53</v>
       </c>
-      <c r="K25" s="66">
+      <c r="K25" s="1">
         <v>48</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L25" s="1">
         <v>68</v>
       </c>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
       <c r="AQ25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AR25" s="1">
         <v>9</v>
       </c>
-      <c r="AS25" s="90" t="s">
+      <c r="AS25" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="AT25" s="90"/>
+      <c r="AT25" s="95"/>
       <c r="AU25" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8904,58 +8474,22 @@
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="97">
+      <c r="A26" s="72">
         <v>8</v>
       </c>
-      <c r="B26" s="66">
+      <c r="B26" s="1">
         <v>65</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="1">
         <v>66</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
       <c r="AR26" s="1">
         <v>9</v>
       </c>
-      <c r="AS26" s="73" t="s">
+      <c r="AS26" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AT26" s="73"/>
+      <c r="AT26" s="78"/>
       <c r="AU26" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -8984,55 +8518,19 @@
       </c>
     </row>
     <row r="27" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97">
+      <c r="A27" s="72">
         <v>9</v>
       </c>
-      <c r="B27" s="66">
+      <c r="B27" s="1">
         <v>71</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="66"/>
       <c r="AR27" s="1">
         <v>9</v>
       </c>
-      <c r="AS27" s="73" t="s">
+      <c r="AS27" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AT27" s="73"/>
+      <c r="AT27" s="78"/>
       <c r="AU27" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -9055,31 +8553,31 @@
       </c>
     </row>
     <row r="28" spans="1:57" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97">
+      <c r="A28" s="72">
         <v>10</v>
       </c>
-      <c r="B28" s="66">
+      <c r="B28" s="1">
         <v>54</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="1">
         <v>62</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="1">
         <v>55</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="1">
         <v>57</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="1">
         <v>109</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="1">
         <v>70</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="1">
         <v>64</v>
       </c>
-      <c r="I28" s="66">
+      <c r="I28" s="1">
         <v>131</v>
       </c>
       <c r="J28" s="59">
@@ -9130,27 +8628,13 @@
       <c r="Y28" s="61">
         <v>158</v>
       </c>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
       <c r="AR28" s="1">
         <v>9</v>
       </c>
-      <c r="AS28" s="73" t="s">
+      <c r="AS28" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="AT28" s="73"/>
+      <c r="AT28" s="78"/>
       <c r="AU28" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -9182,65 +8666,31 @@
       </c>
     </row>
     <row r="29" spans="1:57" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97">
+      <c r="A29" s="72">
         <v>11</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B29" s="1">
         <v>99</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="1">
         <v>129</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="1">
         <v>103</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="1">
         <v>126</v>
       </c>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="66"/>
       <c r="AQ29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AR29" s="1">
         <v>12</v>
       </c>
-      <c r="AS29" s="86" t="s">
+      <c r="AS29" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AT29" s="86"/>
+      <c r="AT29" s="91"/>
       <c r="AU29" s="1">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -9263,65 +8713,31 @@
       </c>
     </row>
     <row r="30" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97">
+      <c r="A30" s="72">
         <v>12</v>
       </c>
-      <c r="B30" s="66">
+      <c r="B30" s="1">
         <v>102</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="1">
         <v>107</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="1">
         <v>104</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="1">
         <v>128</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="66"/>
       <c r="AQ30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AR30" s="1">
         <v>12</v>
       </c>
-      <c r="AS30" s="87" t="s">
+      <c r="AS30" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AT30" s="87"/>
+      <c r="AT30" s="92"/>
       <c r="AU30" s="1">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -9344,7 +8760,7 @@
       </c>
     </row>
     <row r="31" spans="1:57" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97">
+      <c r="A31" s="72">
         <v>13</v>
       </c>
       <c r="B31" s="59">
@@ -9374,72 +8790,58 @@
       <c r="J31" s="61">
         <v>26</v>
       </c>
-      <c r="K31" s="66">
+      <c r="K31" s="1">
         <v>114</v>
       </c>
-      <c r="L31" s="66">
+      <c r="L31" s="1">
         <v>115</v>
       </c>
-      <c r="M31" s="66">
+      <c r="M31" s="1">
         <v>112</v>
       </c>
-      <c r="N31" s="66">
+      <c r="N31" s="1">
         <v>113</v>
       </c>
-      <c r="O31" s="66">
+      <c r="O31" s="1">
         <v>117</v>
       </c>
-      <c r="P31" s="66">
+      <c r="P31" s="1">
         <v>118</v>
       </c>
-      <c r="Q31" s="66">
+      <c r="Q31" s="1">
         <v>110</v>
       </c>
-      <c r="R31" s="66">
+      <c r="R31" s="1">
         <v>121</v>
       </c>
-      <c r="S31" s="66">
+      <c r="S31" s="1">
         <v>130</v>
       </c>
-      <c r="T31" s="66">
+      <c r="T31" s="1">
         <v>111</v>
       </c>
-      <c r="U31" s="66">
+      <c r="U31" s="1">
         <v>123</v>
       </c>
-      <c r="V31" s="66">
+      <c r="V31" s="1">
         <v>124</v>
       </c>
-      <c r="W31" s="66">
+      <c r="W31" s="1">
         <v>108</v>
       </c>
-      <c r="X31" s="66">
+      <c r="X31" s="1">
         <v>119</v>
       </c>
-      <c r="Y31" s="66">
+      <c r="Y31" s="1">
         <v>116</v>
       </c>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
       <c r="AR31" s="1">
         <v>12</v>
       </c>
-      <c r="AS31" s="73" t="s">
+      <c r="AS31" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AT31" s="73"/>
+      <c r="AT31" s="78"/>
       <c r="AU31" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
@@ -9471,66 +8873,34 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="97">
+      <c r="A32" s="72">
         <v>14</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B32" s="1">
         <v>106</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="1">
         <v>96</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="1">
         <v>125</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="1">
         <v>122</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F32" s="1">
         <v>127</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="1">
         <v>120</v>
       </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
       <c r="AR32" s="1">
         <v>12</v>
       </c>
-      <c r="AS32" s="73" t="s">
+      <c r="AS32" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="AT32" s="73"/>
+      <c r="AT32" s="78"/>
       <c r="AU32" s="1">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -9547,60 +8917,25 @@
       </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A33" s="97">
+      <c r="A33" s="72">
         <v>15</v>
       </c>
-      <c r="B33" s="66">
+      <c r="B33" s="1">
         <v>105</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="1">
         <v>97</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="1">
         <v>98</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
       <c r="AR33" s="1">
         <v>12</v>
       </c>
-      <c r="AS33" s="73" t="s">
+      <c r="AS33" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AT33" s="73"/>
+      <c r="AT33" s="78"/>
       <c r="AU33" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -9632,61 +8967,25 @@
       </c>
     </row>
     <row r="34" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="97">
+      <c r="A34" s="72">
         <v>16</v>
       </c>
-      <c r="B34" s="66">
+      <c r="B34" s="1">
         <v>101</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="1">
         <v>100</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="66"/>
       <c r="AQ34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AR34" s="1">
         <v>11</v>
       </c>
-      <c r="AS34" s="84" t="s">
+      <c r="AS34" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AT34" s="84"/>
+      <c r="AT34" s="89"/>
       <c r="AU34" s="1">
         <f t="shared" si="0"/>
         <v>132</v>
@@ -9712,75 +9011,46 @@
       </c>
     </row>
     <row r="35" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="97">
+      <c r="A35" s="72">
         <v>17</v>
       </c>
-      <c r="B35" s="100">
+      <c r="B35" s="75">
         <v>36</v>
       </c>
-      <c r="C35" s="101">
+      <c r="C35" s="76">
         <v>43</v>
       </c>
-      <c r="D35" s="101">
+      <c r="D35" s="76">
         <v>40</v>
       </c>
-      <c r="E35" s="101">
+      <c r="E35" s="76">
         <v>44</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="76">
         <v>41</v>
       </c>
-      <c r="G35" s="101">
+      <c r="G35" s="76">
         <v>42</v>
       </c>
-      <c r="H35" s="101">
+      <c r="H35" s="76">
         <v>38</v>
       </c>
-      <c r="I35" s="101">
+      <c r="I35" s="76">
         <v>37</v>
       </c>
-      <c r="J35" s="102">
+      <c r="J35" s="77">
         <v>39</v>
       </c>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
       <c r="AQ35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AR35" s="1">
         <v>16</v>
       </c>
-      <c r="AS35" s="85" t="s">
+      <c r="AS35" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AT35" s="85"/>
+      <c r="AT35" s="90"/>
       <c r="AU35" s="1">
         <f t="shared" si="0"/>
         <v>143</v>
@@ -9797,7 +9067,7 @@
       </c>
     </row>
     <row r="36" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="97">
+      <c r="A36" s="72">
         <v>18</v>
       </c>
       <c r="B36" s="62">
@@ -9836,122 +9106,20 @@
       <c r="M36" s="64">
         <v>95</v>
       </c>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A37" s="97">
+      <c r="A37" s="72">
         <v>19</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
       <c r="AR37" s="1">
         <f>SUM(AR22:AR35)</f>
         <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A38" s="97">
+      <c r="A38" s="72">
         <v>20</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9977,10 +9145,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41494710-9287-4DEB-B78E-81AD840990D3}">
-  <dimension ref="A1:IA3"/>
+  <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:IA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10046,2128 +9214,2594 @@
     <col min="188" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:235" x14ac:dyDescent="0.25">
-      <c r="A1" s="66">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66">
-        <v>0</v>
-      </c>
-      <c r="C1" s="66">
-        <v>2</v>
-      </c>
-      <c r="D1" s="66">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B1" s="91">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="U1" s="91">
+        <v>2</v>
+      </c>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AG1" s="91">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AV1" s="91">
         <v>4</v>
       </c>
-      <c r="E1" s="66">
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
         <v>8</v>
       </c>
-      <c r="F1" s="66">
+      <c r="F2" s="1">
         <v>8.5</v>
       </c>
-      <c r="G1" s="66">
+      <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="H1" s="66">
+      <c r="H2" s="1">
         <v>13</v>
       </c>
-      <c r="I1" s="66">
+      <c r="I2" s="1">
         <v>15.5</v>
       </c>
-      <c r="J1" s="66">
+      <c r="J2" s="1">
         <v>20</v>
       </c>
-      <c r="K1" s="66">
+      <c r="K2" s="1">
         <v>24.5</v>
       </c>
-      <c r="L1" s="66">
+      <c r="L2" s="1">
         <v>25</v>
       </c>
-      <c r="M1" s="66">
+      <c r="M2" s="1">
         <v>28.5</v>
       </c>
-      <c r="N1" s="66">
+      <c r="N2" s="1">
         <v>32</v>
       </c>
-      <c r="O1" s="66">
+      <c r="O2" s="1">
         <v>37</v>
       </c>
-      <c r="P1" s="66">
+      <c r="P2" s="1">
         <v>39.5</v>
       </c>
-      <c r="Q1" s="66">
+      <c r="Q2" s="1">
         <v>43.5</v>
       </c>
-      <c r="R1" s="66">
+      <c r="R2" s="1">
         <v>47.5</v>
       </c>
-      <c r="S1" s="66">
+      <c r="S2" s="1">
         <v>52.5</v>
       </c>
-      <c r="T1" s="66">
-        <v>0</v>
-      </c>
-      <c r="U1" s="66">
-        <v>0</v>
-      </c>
-      <c r="V1" s="66">
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
         <v>52.5</v>
       </c>
-      <c r="W1" s="66">
+      <c r="W2" s="1">
         <v>53.5</v>
       </c>
-      <c r="X1" s="66">
+      <c r="X2" s="1">
         <v>54</v>
       </c>
-      <c r="Y1" s="66">
+      <c r="Y2" s="1">
         <v>54.5</v>
       </c>
-      <c r="Z1" s="66">
+      <c r="Z2" s="1">
         <v>55.5</v>
       </c>
-      <c r="AA1" s="66">
+      <c r="AA2" s="1">
         <v>56.5</v>
       </c>
-      <c r="AB1" s="66">
+      <c r="AB2" s="1">
         <v>58</v>
       </c>
-      <c r="AC1" s="66">
+      <c r="AC2" s="1">
         <v>59.5</v>
       </c>
-      <c r="AD1" s="66">
+      <c r="AD2" s="1">
         <v>60</v>
       </c>
-      <c r="AE1" s="66">
+      <c r="AE2" s="1">
         <v>61.5</v>
       </c>
-      <c r="AF1" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="66">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="66">
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
         <v>52.5</v>
       </c>
-      <c r="AI1" s="66">
+      <c r="AI2" s="1">
         <v>53.5</v>
       </c>
-      <c r="AJ1" s="66">
+      <c r="AJ2" s="1">
         <v>54</v>
       </c>
-      <c r="AK1" s="66">
+      <c r="AK2" s="1">
         <v>54.5</v>
       </c>
-      <c r="AL1" s="66">
+      <c r="AL2" s="1">
         <v>56</v>
       </c>
-      <c r="AM1" s="66">
+      <c r="AM2" s="1">
         <v>57</v>
       </c>
-      <c r="AN1" s="66">
+      <c r="AN2" s="1">
         <v>57.5</v>
       </c>
-      <c r="AO1" s="66">
+      <c r="AO2" s="1">
         <v>59</v>
       </c>
-      <c r="AP1" s="66">
+      <c r="AP2" s="1">
         <v>60</v>
       </c>
-      <c r="AQ1" s="66">
+      <c r="AQ2" s="1">
         <v>61</v>
       </c>
-      <c r="AR1" s="66">
+      <c r="AR2" s="1">
         <v>62</v>
       </c>
-      <c r="AS1" s="66">
+      <c r="AS2" s="1">
         <v>63.5</v>
       </c>
-      <c r="AT1" s="66">
+      <c r="AT2" s="1">
         <v>64.5</v>
       </c>
-      <c r="AU1" s="66">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="66">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="66">
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
         <v>1.1428571428571399</v>
       </c>
-      <c r="AX1" s="66">
+      <c r="AX2" s="1">
         <v>60</v>
       </c>
-      <c r="AY1" s="66">
+      <c r="AY2" s="1">
         <v>61</v>
       </c>
-      <c r="AZ1" s="66">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="66">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="66">
+      <c r="AZ2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>54</v>
+      </c>
+      <c r="X3" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="Z3" s="1">
         <v>56.5</v>
       </c>
-      <c r="BC1" s="66">
+      <c r="AA3" s="1">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>57</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>59</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>60</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>61</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>62</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>60</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>61</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B7" s="91">
+        <v>5</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="T7" s="91">
+        <v>6</v>
+      </c>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Z7" s="91">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AU7" s="91">
+        <v>8</v>
+      </c>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="91"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="C8" s="1">
         <v>57.642857142857103</v>
       </c>
-      <c r="BD1" s="66">
+      <c r="D8" s="1">
         <v>59.142857142857103</v>
       </c>
-      <c r="BE1" s="66">
+      <c r="E8" s="1">
         <v>61.5</v>
       </c>
-      <c r="BF1" s="66">
+      <c r="F8" s="1">
         <v>62.071428571428598</v>
       </c>
-      <c r="BG1" s="66">
+      <c r="G8" s="1">
         <v>69</v>
       </c>
-      <c r="BH1" s="66">
+      <c r="H8" s="1">
         <v>72</v>
       </c>
-      <c r="BI1" s="66">
+      <c r="I8" s="1">
         <v>72.5</v>
       </c>
-      <c r="BJ1" s="66">
+      <c r="J8" s="1">
         <v>73.5</v>
       </c>
-      <c r="BK1" s="66">
+      <c r="K8" s="1">
         <v>76</v>
       </c>
-      <c r="BL1" s="66">
+      <c r="L8" s="1">
         <v>76.5</v>
       </c>
-      <c r="BM1" s="66">
+      <c r="M8" s="1">
         <v>78.5</v>
       </c>
-      <c r="BN1" s="66">
+      <c r="N8" s="1">
         <v>80</v>
       </c>
-      <c r="BO1" s="66">
+      <c r="O8" s="1">
         <v>82</v>
       </c>
-      <c r="BP1" s="66">
+      <c r="P8" s="1">
         <v>82.5</v>
       </c>
-      <c r="BQ1" s="66">
+      <c r="Q8" s="1">
         <v>85</v>
       </c>
-      <c r="BR1" s="66">
+      <c r="R8" s="1">
         <v>86.5</v>
       </c>
-      <c r="BS1" s="66">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="66">
-        <v>0</v>
-      </c>
-      <c r="BU1" s="66">
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>56.5</v>
       </c>
-      <c r="BV1" s="66">
+      <c r="V8" s="1">
         <v>57.1666666666667</v>
       </c>
-      <c r="BW1" s="66">
+      <c r="W8" s="1">
         <v>59.5</v>
       </c>
-      <c r="BX1" s="66">
+      <c r="X8" s="1">
         <v>60.8333333333333</v>
       </c>
-      <c r="BY1" s="66">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="66">
-        <v>0</v>
-      </c>
-      <c r="CA1" s="66">
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
         <v>4</v>
       </c>
-      <c r="CB1" s="66">
+      <c r="AB8" s="1">
         <v>5</v>
       </c>
-      <c r="CC1" s="66">
+      <c r="AC8" s="1">
         <v>5.5</v>
       </c>
-      <c r="CD1" s="66">
+      <c r="AD8" s="1">
         <v>7.5</v>
       </c>
-      <c r="CE1" s="66">
+      <c r="AE8" s="1">
         <v>9</v>
       </c>
-      <c r="CF1" s="66">
+      <c r="AF8" s="1">
         <v>55.5</v>
       </c>
-      <c r="CG1" s="66">
+      <c r="AG8" s="1">
         <v>57</v>
       </c>
-      <c r="CH1" s="66">
+      <c r="AH8" s="1">
         <v>58.5</v>
       </c>
-      <c r="CI1" s="66">
+      <c r="AI8" s="1">
         <v>59.5</v>
       </c>
-      <c r="CJ1" s="66">
+      <c r="AJ8" s="1">
         <v>60.5</v>
       </c>
-      <c r="CK1" s="66">
+      <c r="AK8" s="1">
         <v>62</v>
       </c>
-      <c r="CL1" s="66">
+      <c r="AL8" s="1">
         <v>62.8</v>
       </c>
-      <c r="CM1" s="66">
+      <c r="AM8" s="1">
         <v>64</v>
       </c>
-      <c r="CN1" s="66">
+      <c r="AN8" s="1">
         <v>64.5</v>
       </c>
-      <c r="CO1" s="66">
+      <c r="AO8" s="1">
         <v>66.099999999999994</v>
       </c>
-      <c r="CP1" s="66">
+      <c r="AP8" s="1">
         <v>66.5</v>
       </c>
-      <c r="CQ1" s="66">
+      <c r="AQ8" s="1">
         <v>67</v>
       </c>
-      <c r="CR1" s="66">
+      <c r="AR8" s="1">
         <v>68</v>
       </c>
-      <c r="CS1" s="66">
+      <c r="AS8" s="1">
         <v>68.5</v>
       </c>
-      <c r="CT1" s="66">
-        <v>0</v>
-      </c>
-      <c r="CU1" s="66">
-        <v>0</v>
-      </c>
-      <c r="CV1" s="66">
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
         <v>59</v>
       </c>
-      <c r="CW1" s="66">
+      <c r="AW8" s="1">
         <v>60</v>
       </c>
-      <c r="CX1" s="66">
+      <c r="AX8" s="1">
         <v>67</v>
       </c>
-      <c r="CY1" s="66">
+      <c r="AY8" s="1">
         <v>68</v>
       </c>
-      <c r="CZ1" s="66">
-        <v>0</v>
-      </c>
-      <c r="DA1" s="66">
-        <v>0</v>
-      </c>
-      <c r="DB1" s="66">
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>57.642857142857103</v>
+      </c>
+      <c r="C9" s="1">
+        <v>59.142857142857103</v>
+      </c>
+      <c r="D9" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>62.071428571428598</v>
+      </c>
+      <c r="F9" s="1">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>76</v>
+      </c>
+      <c r="K9" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>80</v>
+      </c>
+      <c r="N9" s="1">
+        <v>82</v>
+      </c>
+      <c r="O9" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="U9" s="1">
+        <v>57.1666666666667</v>
+      </c>
+      <c r="V9" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>60.8333333333333</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>57</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>62</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>68</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>59</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>67</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>68</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B13" s="91">
+        <v>9</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="E13" s="91">
+        <v>10</v>
+      </c>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AF13" s="91">
+        <v>11</v>
+      </c>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AM13" s="91">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="91"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AW13" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="91"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
         <v>58</v>
       </c>
-      <c r="DC1" s="66">
+      <c r="C14" s="1">
         <v>60</v>
       </c>
-      <c r="DD1" s="66">
-        <v>0</v>
-      </c>
-      <c r="DE1" s="66">
-        <v>0</v>
-      </c>
-      <c r="DF1" s="66">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>56.5</v>
       </c>
-      <c r="DG1" s="66">
+      <c r="G14" s="1">
         <v>57.5</v>
       </c>
-      <c r="DH1" s="66">
+      <c r="H14" s="1">
         <v>58</v>
       </c>
-      <c r="DI1" s="66">
+      <c r="I14" s="1">
         <v>58.5</v>
       </c>
-      <c r="DJ1" s="66">
+      <c r="J14" s="1">
         <v>59</v>
       </c>
-      <c r="DK1" s="66">
+      <c r="K14" s="1">
         <v>59.5</v>
       </c>
-      <c r="DL1" s="66">
+      <c r="L14" s="1">
         <v>61</v>
       </c>
-      <c r="DM1" s="66">
+      <c r="M14" s="1">
         <v>62</v>
       </c>
-      <c r="DN1" s="66">
+      <c r="N14" s="1">
         <v>64</v>
       </c>
-      <c r="DO1" s="66">
+      <c r="O14" s="1">
         <v>65.5</v>
       </c>
-      <c r="DP1" s="66">
+      <c r="P14" s="1">
         <v>66.5</v>
       </c>
-      <c r="DQ1" s="66">
+      <c r="Q14" s="1">
         <v>68.5</v>
       </c>
-      <c r="DR1" s="66">
+      <c r="R14" s="1">
         <v>69</v>
       </c>
-      <c r="DS1" s="66">
+      <c r="S14" s="1">
         <v>70</v>
       </c>
-      <c r="DT1" s="66">
+      <c r="T14" s="1">
         <v>70.5</v>
       </c>
-      <c r="DU1" s="66">
+      <c r="U14" s="1">
         <v>72.5</v>
       </c>
-      <c r="DV1" s="66">
+      <c r="V14" s="1">
         <v>73.5</v>
       </c>
-      <c r="DW1" s="66">
+      <c r="W14" s="1">
         <v>75.5</v>
       </c>
-      <c r="DX1" s="66">
+      <c r="X14" s="1">
         <v>76.5</v>
       </c>
-      <c r="DY1" s="66">
+      <c r="Y14" s="1">
         <v>78</v>
       </c>
-      <c r="DZ1" s="66">
+      <c r="Z14" s="1">
         <v>81</v>
       </c>
-      <c r="EA1" s="66">
+      <c r="AA14" s="1">
         <v>82.5</v>
       </c>
-      <c r="EB1" s="66">
+      <c r="AB14" s="1">
         <v>84</v>
       </c>
-      <c r="EC1" s="66">
+      <c r="AC14" s="1">
         <v>86.5</v>
       </c>
-      <c r="ED1" s="66">
+      <c r="AD14" s="1">
         <v>89.5</v>
       </c>
-      <c r="EE1" s="66">
-        <v>0</v>
-      </c>
-      <c r="EF1" s="66">
-        <v>0</v>
-      </c>
-      <c r="EG1" s="66">
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
         <v>1.6</v>
       </c>
-      <c r="EH1" s="66">
+      <c r="AH14" s="1">
         <v>4</v>
       </c>
-      <c r="EI1" s="66">
+      <c r="AI14" s="1">
         <v>61.5</v>
       </c>
-      <c r="EJ1" s="66">
+      <c r="AJ14" s="1">
         <v>63.5</v>
       </c>
-      <c r="EK1" s="66">
+      <c r="AK14" s="1">
         <v>64.1666666666667</v>
       </c>
-      <c r="EL1" s="66">
-        <v>0</v>
-      </c>
-      <c r="EM1" s="66">
-        <v>0</v>
-      </c>
-      <c r="EN1" s="66">
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
         <v>3.5</v>
       </c>
-      <c r="EO1" s="66">
+      <c r="AO14" s="1">
         <v>4.6428571428571397</v>
       </c>
-      <c r="EP1" s="66">
+      <c r="AP14" s="1">
         <v>59.5</v>
       </c>
-      <c r="EQ1" s="66">
+      <c r="AQ14" s="1">
         <v>60.071428571428598</v>
       </c>
-      <c r="ER1" s="66">
+      <c r="AR14" s="1">
         <v>63.5</v>
       </c>
-      <c r="ES1" s="66">
+      <c r="AS14" s="1">
         <v>65.900000000000006</v>
       </c>
-      <c r="ET1" s="66">
+      <c r="AT14" s="1">
         <v>67.5</v>
       </c>
-      <c r="EU1" s="66">
+      <c r="AU14" s="1">
         <v>68.071428571428598</v>
       </c>
-      <c r="EV1" s="66">
-        <v>0</v>
-      </c>
-      <c r="EW1" s="66">
-        <v>0</v>
-      </c>
-      <c r="EX1" s="66">
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="1">
         <v>0.5</v>
       </c>
-      <c r="EY1" s="66">
-        <v>1</v>
-      </c>
-      <c r="EZ1" s="66">
+      <c r="AY14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="1">
         <v>1.5</v>
       </c>
-      <c r="FA1" s="66">
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>58</v>
+      </c>
+      <c r="H15" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>59</v>
+      </c>
+      <c r="J15" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>61</v>
+      </c>
+      <c r="L15" s="1">
+        <v>62</v>
+      </c>
+      <c r="M15" s="1">
+        <v>64</v>
+      </c>
+      <c r="N15" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>68.5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>69</v>
+      </c>
+      <c r="R15" s="1">
+        <v>70</v>
+      </c>
+      <c r="S15" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="T15" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="U15" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="X15" s="1">
+        <v>78</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>81</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>84</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>64.1666666666667</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>4.6428571428571397</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>60.071428571428598</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>68.071428571428598</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AZ15" s="1">
         <v>3</v>
       </c>
-      <c r="FB1" s="66">
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AW17" s="4">
+        <v>18</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>24</v>
+      </c>
+      <c r="AY17" s="4">
+        <v>21</v>
+      </c>
+      <c r="AZ17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="Y19" s="91">
+        <v>14</v>
+      </c>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AJ19" s="91">
+        <v>15</v>
+      </c>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="91"/>
+      <c r="AN19" s="91"/>
+      <c r="AP19" s="91">
+        <v>16</v>
+      </c>
+      <c r="AQ19" s="91"/>
+      <c r="AR19" s="91"/>
+      <c r="AS19" s="91"/>
+      <c r="AU19" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
         <v>5.5</v>
       </c>
-      <c r="FC1" s="66">
+      <c r="C20" s="1">
         <v>52.5</v>
       </c>
-      <c r="FD1" s="66">
+      <c r="D20" s="1">
         <v>53</v>
       </c>
-      <c r="FE1" s="66">
+      <c r="E20" s="1">
         <v>54</v>
       </c>
-      <c r="FF1" s="66">
+      <c r="F20" s="1">
         <v>54.5</v>
       </c>
-      <c r="FG1" s="66">
+      <c r="G20" s="1">
         <v>56.5</v>
       </c>
-      <c r="FH1" s="66">
+      <c r="H20" s="1">
         <v>57</v>
       </c>
-      <c r="FI1" s="66">
+      <c r="I20" s="1">
         <v>57.5</v>
       </c>
-      <c r="FJ1" s="66">
+      <c r="J20" s="1">
         <v>58.5</v>
       </c>
-      <c r="FK1" s="66">
+      <c r="K20" s="1">
         <v>59.5</v>
       </c>
-      <c r="FL1" s="66">
+      <c r="L20" s="1">
         <v>60</v>
       </c>
-      <c r="FM1" s="66">
+      <c r="M20" s="1">
         <v>61</v>
       </c>
-      <c r="FN1" s="66">
+      <c r="N20" s="1">
         <v>61.5</v>
       </c>
-      <c r="FO1" s="66">
+      <c r="O20" s="1">
         <v>62</v>
       </c>
-      <c r="FP1" s="66">
+      <c r="P20" s="1">
         <v>62.5</v>
       </c>
-      <c r="FQ1" s="66">
+      <c r="Q20" s="1">
         <v>63</v>
       </c>
-      <c r="FR1" s="66">
+      <c r="R20" s="1">
         <v>63.5</v>
       </c>
-      <c r="FS1" s="66">
+      <c r="S20" s="1">
         <v>64.5</v>
       </c>
-      <c r="FT1" s="66">
+      <c r="T20" s="1">
         <v>65</v>
       </c>
-      <c r="FU1" s="66">
+      <c r="U20" s="1">
         <v>65.5</v>
       </c>
-      <c r="FV1" s="66">
+      <c r="V20" s="1">
         <v>66.1666666666667</v>
       </c>
-      <c r="FW1" s="66">
+      <c r="W20" s="1">
         <v>66.6666666666667</v>
       </c>
-      <c r="FX1" s="66">
-        <v>0</v>
-      </c>
-      <c r="FY1" s="66">
-        <v>0</v>
-      </c>
-      <c r="FZ1" s="66">
-        <v>1</v>
-      </c>
-      <c r="GA1" s="66">
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
         <v>3</v>
       </c>
-      <c r="GB1" s="66">
+      <c r="AB20" s="1">
         <v>3.6666666666666701</v>
       </c>
-      <c r="GC1" s="66">
+      <c r="AC20" s="1">
         <v>59.5</v>
       </c>
-      <c r="GD1" s="66">
+      <c r="AD20" s="1">
         <v>61.5</v>
       </c>
-      <c r="GE1" s="66">
+      <c r="AE20" s="1">
         <v>63.5</v>
       </c>
-      <c r="GF1" s="66">
+      <c r="AF20" s="1">
         <v>64.1666666666667</v>
       </c>
-      <c r="GG1" s="66">
+      <c r="AG20" s="1">
         <v>65.5</v>
       </c>
-      <c r="GH1" s="66">
+      <c r="AH20" s="1">
         <v>66.1666666666667</v>
       </c>
-      <c r="GI1" s="66">
-        <v>0</v>
-      </c>
-      <c r="GJ1" s="66">
-        <v>0</v>
-      </c>
-      <c r="GK1" s="66">
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
         <v>1.6</v>
       </c>
-      <c r="GL1" s="66">
+      <c r="AL20" s="1">
         <v>58</v>
       </c>
-      <c r="GM1" s="66">
+      <c r="AM20" s="1">
         <v>60.4</v>
       </c>
-      <c r="GN1" s="66">
+      <c r="AN20" s="1">
         <v>61.2</v>
       </c>
-      <c r="GO1" s="66">
-        <v>0</v>
-      </c>
-      <c r="GP1" s="66">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="66">
-        <v>2</v>
-      </c>
-      <c r="GR1" s="66">
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="1">
         <v>64.5</v>
       </c>
-      <c r="GS1" s="66">
+      <c r="AS20" s="1">
         <v>65.1666666666667</v>
       </c>
-      <c r="GT1" s="66">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="66">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="66">
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1">
         <v>4</v>
       </c>
-      <c r="GW1" s="66">
+      <c r="AW20" s="1">
         <v>5.5</v>
       </c>
-      <c r="GX1" s="66">
+      <c r="AX20" s="1">
         <v>7.5</v>
       </c>
-      <c r="GY1" s="66">
+      <c r="AY20" s="1">
         <v>54.5</v>
       </c>
-      <c r="GZ1" s="66">
+      <c r="AZ20" s="1">
         <v>55.5</v>
       </c>
-      <c r="HA1" s="66">
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="F21" s="1">
         <v>56.5</v>
       </c>
-      <c r="HB1" s="66">
+      <c r="G21" s="1">
+        <v>57</v>
+      </c>
+      <c r="H21" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="I21" s="1">
         <v>58.5</v>
       </c>
-      <c r="HC1" s="66">
+      <c r="J21" s="1">
         <v>59.5</v>
       </c>
-      <c r="HD1" s="66">
+      <c r="K21" s="1">
+        <v>60</v>
+      </c>
+      <c r="L21" s="1">
+        <v>61</v>
+      </c>
+      <c r="M21" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>62</v>
+      </c>
+      <c r="O21" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="R21" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="S21" s="1">
+        <v>65</v>
+      </c>
+      <c r="T21" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="U21" s="1">
+        <v>66.1666666666667</v>
+      </c>
+      <c r="V21" s="1">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>3.6666666666666701</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>64.1666666666667</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>65.5</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>66.1666666666667</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>58</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>65.1666666666667</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4">
+        <v>23</v>
+      </c>
+      <c r="F23" s="4">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4">
+        <v>114</v>
+      </c>
+      <c r="H23" s="4">
+        <v>115</v>
+      </c>
+      <c r="I23" s="4">
+        <v>112</v>
+      </c>
+      <c r="J23" s="4">
+        <v>113</v>
+      </c>
+      <c r="K23" s="4">
+        <v>117</v>
+      </c>
+      <c r="L23" s="4">
+        <v>118</v>
+      </c>
+      <c r="M23" s="4">
+        <v>110</v>
+      </c>
+      <c r="N23" s="4">
+        <v>121</v>
+      </c>
+      <c r="O23" s="4">
+        <v>130</v>
+      </c>
+      <c r="P23" s="4">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>123</v>
+      </c>
+      <c r="R23" s="4">
+        <v>124</v>
+      </c>
+      <c r="S23" s="4">
+        <v>108</v>
+      </c>
+      <c r="T23" s="4">
+        <v>119</v>
+      </c>
+      <c r="V23" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <f>D21-D20</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ref="E24:V24" si="0">E21-E20</f>
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666669983</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="I25" s="91">
+        <v>18</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="X25" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="D26" s="1">
         <v>60.5</v>
       </c>
-      <c r="HE1" s="66">
+      <c r="E26" s="1">
         <v>64</v>
       </c>
-      <c r="HF1" s="66">
+      <c r="F26" s="1">
         <v>66.5</v>
       </c>
-      <c r="HG1" s="66">
+      <c r="G26" s="1">
         <v>68</v>
       </c>
-      <c r="HH1" s="66">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="66">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="66">
-        <v>1</v>
-      </c>
-      <c r="HK1" s="66">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
         <v>3.5</v>
       </c>
-      <c r="HL1" s="66">
+      <c r="L26" s="1">
         <v>54.5</v>
       </c>
-      <c r="HM1" s="66">
+      <c r="M26" s="1">
         <v>56.5</v>
       </c>
-      <c r="HN1" s="66">
+      <c r="N26" s="1">
         <v>58</v>
       </c>
-      <c r="HO1" s="66">
+      <c r="O26" s="1">
         <v>59.5</v>
       </c>
-      <c r="HP1" s="66">
+      <c r="P26" s="1">
         <v>60</v>
       </c>
-      <c r="HQ1" s="66">
+      <c r="Q26" s="1">
         <v>61.5</v>
       </c>
-      <c r="HR1" s="66">
+      <c r="R26" s="1">
         <v>62</v>
       </c>
-      <c r="HS1" s="66">
+      <c r="S26" s="1">
         <v>64</v>
       </c>
-      <c r="HT1" s="66">
+      <c r="T26" s="1">
         <v>64.5</v>
       </c>
-      <c r="HU1" s="66">
+      <c r="U26" s="1">
         <v>65.5</v>
       </c>
-      <c r="HV1" s="66">
+      <c r="V26" s="1">
         <v>67.5</v>
       </c>
-      <c r="HW1" s="66">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="66">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="66">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="66">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:235" x14ac:dyDescent="0.25">
-      <c r="A2" s="66">
-        <v>0</v>
-      </c>
-      <c r="B2" s="66">
-        <v>2</v>
-      </c>
-      <c r="C2" s="66">
-        <v>4</v>
-      </c>
-      <c r="D2" s="66">
-        <v>8</v>
-      </c>
-      <c r="E2" s="66">
-        <v>8.5</v>
-      </c>
-      <c r="F2" s="66">
-        <v>10</v>
-      </c>
-      <c r="G2" s="66">
-        <v>13</v>
-      </c>
-      <c r="H2" s="66">
-        <v>15.5</v>
-      </c>
-      <c r="I2" s="66">
-        <v>20</v>
-      </c>
-      <c r="J2" s="66">
-        <v>24.5</v>
-      </c>
-      <c r="K2" s="66">
-        <v>25</v>
-      </c>
-      <c r="L2" s="66">
-        <v>28.5</v>
-      </c>
-      <c r="M2" s="66">
-        <v>32</v>
-      </c>
-      <c r="N2" s="66">
-        <v>37</v>
-      </c>
-      <c r="O2" s="66">
-        <v>39.5</v>
-      </c>
-      <c r="P2" s="66">
-        <v>43.5</v>
-      </c>
-      <c r="Q2" s="66">
-        <v>47.5</v>
-      </c>
-      <c r="R2" s="66">
-        <v>52.5</v>
-      </c>
-      <c r="S2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="66">
-        <v>0</v>
-      </c>
-      <c r="U2" s="66">
-        <v>52.5</v>
-      </c>
-      <c r="V2" s="66">
-        <v>53.5</v>
-      </c>
-      <c r="W2" s="66">
-        <v>54</v>
-      </c>
-      <c r="X2" s="66">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>68</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K27" s="1">
         <v>54.5</v>
       </c>
-      <c r="Y2" s="66">
-        <v>55.5</v>
-      </c>
-      <c r="Z2" s="66">
+      <c r="L27" s="1">
         <v>56.5</v>
       </c>
-      <c r="AA2" s="66">
+      <c r="M27" s="1">
         <v>58</v>
       </c>
-      <c r="AB2" s="66">
+      <c r="N27" s="1">
         <v>59.5</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="O27" s="1">
         <v>60</v>
       </c>
-      <c r="AD2" s="66">
+      <c r="P27" s="1">
         <v>61.5</v>
       </c>
-      <c r="AE2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="66">
-        <v>52.5</v>
-      </c>
-      <c r="AH2" s="66">
-        <v>53.5</v>
-      </c>
-      <c r="AI2" s="66">
-        <v>54</v>
-      </c>
-      <c r="AJ2" s="66">
-        <v>54.5</v>
-      </c>
-      <c r="AK2" s="66">
-        <v>56</v>
-      </c>
-      <c r="AL2" s="66">
-        <v>57</v>
-      </c>
-      <c r="AM2" s="66">
-        <v>57.5</v>
-      </c>
-      <c r="AN2" s="66">
-        <v>59</v>
-      </c>
-      <c r="AO2" s="66">
-        <v>60</v>
-      </c>
-      <c r="AP2" s="66">
-        <v>61</v>
-      </c>
-      <c r="AQ2" s="66">
+      <c r="Q27" s="1">
         <v>62</v>
       </c>
-      <c r="AR2" s="66">
-        <v>63.5</v>
-      </c>
-      <c r="AS2" s="66">
+      <c r="R27" s="1">
+        <v>64</v>
+      </c>
+      <c r="S27" s="1">
         <v>64.5</v>
       </c>
-      <c r="AT2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="66">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="66">
-        <v>1.1428571428571399</v>
-      </c>
-      <c r="AW2" s="66">
-        <v>60</v>
-      </c>
-      <c r="AX2" s="66">
-        <v>61</v>
-      </c>
-      <c r="AY2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="66">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="66">
-        <v>56.5</v>
-      </c>
-      <c r="BB2" s="66">
-        <v>57.642857142857103</v>
-      </c>
-      <c r="BC2" s="66">
-        <v>59.142857142857103</v>
-      </c>
-      <c r="BD2" s="66">
-        <v>61.5</v>
-      </c>
-      <c r="BE2" s="66">
-        <v>62.071428571428598</v>
-      </c>
-      <c r="BF2" s="66">
-        <v>69</v>
-      </c>
-      <c r="BG2" s="66">
-        <v>72</v>
-      </c>
-      <c r="BH2" s="66">
-        <v>72.5</v>
-      </c>
-      <c r="BI2" s="66">
-        <v>73.5</v>
-      </c>
-      <c r="BJ2" s="66">
-        <v>76</v>
-      </c>
-      <c r="BK2" s="66">
-        <v>76.5</v>
-      </c>
-      <c r="BL2" s="66">
-        <v>78.5</v>
-      </c>
-      <c r="BM2" s="66">
-        <v>80</v>
-      </c>
-      <c r="BN2" s="66">
-        <v>82</v>
-      </c>
-      <c r="BO2" s="66">
-        <v>82.5</v>
-      </c>
-      <c r="BP2" s="66">
-        <v>85</v>
-      </c>
-      <c r="BQ2" s="66">
-        <v>86.5</v>
-      </c>
-      <c r="BR2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="66">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="66">
-        <v>56.5</v>
-      </c>
-      <c r="BU2" s="66">
-        <v>57.1666666666667</v>
-      </c>
-      <c r="BV2" s="66">
-        <v>59.5</v>
-      </c>
-      <c r="BW2" s="66">
-        <v>60.8333333333333</v>
-      </c>
-      <c r="BX2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="66">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="66">
-        <v>4</v>
-      </c>
-      <c r="CA2" s="66">
-        <v>5</v>
-      </c>
-      <c r="CB2" s="66">
-        <v>5.5</v>
-      </c>
-      <c r="CC2" s="66">
-        <v>7.5</v>
-      </c>
-      <c r="CD2" s="66">
-        <v>9</v>
-      </c>
-      <c r="CE2" s="66">
-        <v>55.5</v>
-      </c>
-      <c r="CF2" s="66">
-        <v>57</v>
-      </c>
-      <c r="CG2" s="66">
-        <v>58.5</v>
-      </c>
-      <c r="CH2" s="66">
-        <v>59.5</v>
-      </c>
-      <c r="CI2" s="66">
-        <v>60.5</v>
-      </c>
-      <c r="CJ2" s="66">
-        <v>62</v>
-      </c>
-      <c r="CK2" s="66">
-        <v>62.8</v>
-      </c>
-      <c r="CL2" s="66">
-        <v>64</v>
-      </c>
-      <c r="CM2" s="66">
-        <v>64.5</v>
-      </c>
-      <c r="CN2" s="66">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="CO2" s="66">
-        <v>66.5</v>
-      </c>
-      <c r="CP2" s="66">
-        <v>67</v>
-      </c>
-      <c r="CQ2" s="66">
-        <v>68</v>
-      </c>
-      <c r="CR2" s="66">
-        <v>68.5</v>
-      </c>
-      <c r="CS2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="66">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="66">
-        <v>59</v>
-      </c>
-      <c r="CV2" s="66">
-        <v>60</v>
-      </c>
-      <c r="CW2" s="66">
-        <v>67</v>
-      </c>
-      <c r="CX2" s="66">
-        <v>68</v>
-      </c>
-      <c r="CY2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ2" s="66">
-        <v>0</v>
-      </c>
-      <c r="DA2" s="66">
-        <v>58</v>
-      </c>
-      <c r="DB2" s="66">
-        <v>60</v>
-      </c>
-      <c r="DC2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD2" s="66">
-        <v>0</v>
-      </c>
-      <c r="DE2" s="66">
-        <v>56.5</v>
-      </c>
-      <c r="DF2" s="66">
-        <v>57.5</v>
-      </c>
-      <c r="DG2" s="66">
-        <v>58</v>
-      </c>
-      <c r="DH2" s="66">
-        <v>58.5</v>
-      </c>
-      <c r="DI2" s="66">
-        <v>59</v>
-      </c>
-      <c r="DJ2" s="66">
-        <v>59.5</v>
-      </c>
-      <c r="DK2" s="66">
-        <v>61</v>
-      </c>
-      <c r="DL2" s="66">
-        <v>62</v>
-      </c>
-      <c r="DM2" s="66">
-        <v>64</v>
-      </c>
-      <c r="DN2" s="66">
+      <c r="T27" s="1">
         <v>65.5</v>
       </c>
-      <c r="DO2" s="66">
-        <v>66.5</v>
-      </c>
-      <c r="DP2" s="66">
-        <v>68.5</v>
-      </c>
-      <c r="DQ2" s="66">
-        <v>69</v>
-      </c>
-      <c r="DR2" s="66">
-        <v>70</v>
-      </c>
-      <c r="DS2" s="66">
-        <v>70.5</v>
-      </c>
-      <c r="DT2" s="66">
-        <v>72.5</v>
-      </c>
-      <c r="DU2" s="66">
-        <v>73.5</v>
-      </c>
-      <c r="DV2" s="66">
-        <v>75.5</v>
-      </c>
-      <c r="DW2" s="66">
-        <v>76.5</v>
-      </c>
-      <c r="DX2" s="66">
-        <v>78</v>
-      </c>
-      <c r="DY2" s="66">
-        <v>81</v>
-      </c>
-      <c r="DZ2" s="66">
-        <v>82.5</v>
-      </c>
-      <c r="EA2" s="66">
-        <v>84</v>
-      </c>
-      <c r="EB2" s="66">
-        <v>86.5</v>
-      </c>
-      <c r="EC2" s="66">
-        <v>89.5</v>
-      </c>
-      <c r="ED2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="EE2" s="66">
-        <v>0</v>
-      </c>
-      <c r="EF2" s="66">
-        <v>1.6</v>
-      </c>
-      <c r="EG2" s="66">
-        <v>4</v>
-      </c>
-      <c r="EH2" s="66">
-        <v>61.5</v>
-      </c>
-      <c r="EI2" s="66">
-        <v>63.5</v>
-      </c>
-      <c r="EJ2" s="66">
-        <v>64.1666666666667</v>
-      </c>
-      <c r="EK2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="EL2" s="66">
-        <v>0</v>
-      </c>
-      <c r="EM2" s="66">
-        <v>3.5</v>
-      </c>
-      <c r="EN2" s="66">
-        <v>4.6428571428571397</v>
-      </c>
-      <c r="EO2" s="66">
-        <v>59.5</v>
-      </c>
-      <c r="EP2" s="66">
-        <v>60.071428571428598</v>
-      </c>
-      <c r="EQ2" s="66">
-        <v>63.5</v>
-      </c>
-      <c r="ER2" s="66">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="ES2" s="66">
+      <c r="U27" s="1">
         <v>67.5</v>
       </c>
-      <c r="ET2" s="66">
-        <v>68.071428571428598</v>
-      </c>
-      <c r="EU2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="EV2" s="66">
-        <v>0</v>
-      </c>
-      <c r="EW2" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="EX2" s="66">
-        <v>1</v>
-      </c>
-      <c r="EY2" s="66">
-        <v>1.5</v>
-      </c>
-      <c r="EZ2" s="66">
-        <v>3</v>
-      </c>
-      <c r="FA2" s="66">
-        <v>5.5</v>
-      </c>
-      <c r="FB2" s="66">
-        <v>52.5</v>
-      </c>
-      <c r="FC2" s="66">
-        <v>53</v>
-      </c>
-      <c r="FD2" s="66">
-        <v>54</v>
-      </c>
-      <c r="FE2" s="66">
-        <v>54.5</v>
-      </c>
-      <c r="FF2" s="66">
-        <v>56.5</v>
-      </c>
-      <c r="FG2" s="66">
-        <v>57</v>
-      </c>
-      <c r="FH2" s="66">
-        <v>57.5</v>
-      </c>
-      <c r="FI2" s="66">
-        <v>58.5</v>
-      </c>
-      <c r="FJ2" s="66">
-        <v>59.5</v>
-      </c>
-      <c r="FK2" s="66">
-        <v>60</v>
-      </c>
-      <c r="FL2" s="66">
-        <v>61</v>
-      </c>
-      <c r="FM2" s="66">
-        <v>61.5</v>
-      </c>
-      <c r="FN2" s="66">
-        <v>62</v>
-      </c>
-      <c r="FO2" s="66">
-        <v>62.5</v>
-      </c>
-      <c r="FP2" s="66">
-        <v>63</v>
-      </c>
-      <c r="FQ2" s="66">
-        <v>63.5</v>
-      </c>
-      <c r="FR2" s="66">
-        <v>64.5</v>
-      </c>
-      <c r="FS2" s="66">
-        <v>65</v>
-      </c>
-      <c r="FT2" s="66">
-        <v>65.5</v>
-      </c>
-      <c r="FU2" s="66">
-        <v>66.1666666666667</v>
-      </c>
-      <c r="FV2" s="66">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="FW2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="FX2" s="66">
-        <v>0</v>
-      </c>
-      <c r="FY2" s="66">
-        <v>1</v>
-      </c>
-      <c r="FZ2" s="66">
-        <v>3</v>
-      </c>
-      <c r="GA2" s="66">
-        <v>3.6666666666666701</v>
-      </c>
-      <c r="GB2" s="66">
-        <v>59.5</v>
-      </c>
-      <c r="GC2" s="66">
-        <v>61.5</v>
-      </c>
-      <c r="GD2" s="66">
-        <v>63.5</v>
-      </c>
-      <c r="GE2" s="66">
-        <v>64.1666666666667</v>
-      </c>
-      <c r="GF2" s="66">
-        <v>65.5</v>
-      </c>
-      <c r="GG2" s="66">
-        <v>66.1666666666667</v>
-      </c>
-      <c r="GH2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="GI2" s="66">
-        <v>0</v>
-      </c>
-      <c r="GJ2" s="66">
-        <v>1.6</v>
-      </c>
-      <c r="GK2" s="66">
-        <v>58</v>
-      </c>
-      <c r="GL2" s="66">
-        <v>60.4</v>
-      </c>
-      <c r="GM2" s="66">
-        <v>61.2</v>
-      </c>
-      <c r="GN2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="GO2" s="66">
-        <v>0</v>
-      </c>
-      <c r="GP2" s="66">
-        <v>2</v>
-      </c>
-      <c r="GQ2" s="66">
-        <v>64.5</v>
-      </c>
-      <c r="GR2" s="66">
-        <v>65.1666666666667</v>
-      </c>
-      <c r="GS2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="GT2" s="66">
-        <v>0</v>
-      </c>
-      <c r="GU2" s="66">
-        <v>4</v>
-      </c>
-      <c r="GV2" s="66">
-        <v>5.5</v>
-      </c>
-      <c r="GW2" s="66">
-        <v>7.5</v>
-      </c>
-      <c r="GX2" s="66">
-        <v>54.5</v>
-      </c>
-      <c r="GY2" s="66">
-        <v>55.5</v>
-      </c>
-      <c r="GZ2" s="66">
-        <v>56.5</v>
-      </c>
-      <c r="HA2" s="66">
-        <v>58.5</v>
-      </c>
-      <c r="HB2" s="66">
-        <v>59.5</v>
-      </c>
-      <c r="HC2" s="66">
-        <v>60.5</v>
-      </c>
-      <c r="HD2" s="66">
-        <v>64</v>
-      </c>
-      <c r="HE2" s="66">
-        <v>66.5</v>
-      </c>
-      <c r="HF2" s="66">
-        <v>68</v>
-      </c>
-      <c r="HG2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="HH2" s="66">
-        <v>0</v>
-      </c>
-      <c r="HI2" s="66">
-        <v>1</v>
-      </c>
-      <c r="HJ2" s="66">
-        <v>3.5</v>
-      </c>
-      <c r="HK2" s="66">
-        <v>54.5</v>
-      </c>
-      <c r="HL2" s="66">
-        <v>56.5</v>
-      </c>
-      <c r="HM2" s="66">
-        <v>58</v>
-      </c>
-      <c r="HN2" s="66">
-        <v>59.5</v>
-      </c>
-      <c r="HO2" s="66">
-        <v>60</v>
-      </c>
-      <c r="HP2" s="66">
-        <v>61.5</v>
-      </c>
-      <c r="HQ2" s="66">
-        <v>62</v>
-      </c>
-      <c r="HR2" s="66">
-        <v>64</v>
-      </c>
-      <c r="HS2" s="66">
-        <v>64.5</v>
-      </c>
-      <c r="HT2" s="66">
-        <v>65.5</v>
-      </c>
-      <c r="HU2" s="66">
-        <v>67.5</v>
-      </c>
-      <c r="HV2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="HW2" s="66">
-        <v>0</v>
-      </c>
-      <c r="HX2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="HY2" s="66">
-        <v>0</v>
-      </c>
-      <c r="HZ2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="IA2" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:235" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
-        <v>0</v>
-      </c>
-      <c r="B3" s="66">
-        <v>1</v>
-      </c>
-      <c r="C3" s="66">
-        <v>1</v>
-      </c>
-      <c r="D3" s="66">
-        <v>1</v>
-      </c>
-      <c r="E3" s="66">
-        <v>1</v>
-      </c>
-      <c r="F3" s="66">
-        <v>1</v>
-      </c>
-      <c r="G3" s="66">
-        <v>1</v>
-      </c>
-      <c r="H3" s="66">
-        <v>1</v>
-      </c>
-      <c r="I3" s="66">
-        <v>1</v>
-      </c>
-      <c r="J3" s="66">
-        <v>1</v>
-      </c>
-      <c r="K3" s="66">
-        <v>1</v>
-      </c>
-      <c r="L3" s="66">
-        <v>1</v>
-      </c>
-      <c r="M3" s="66">
-        <v>1</v>
-      </c>
-      <c r="N3" s="66">
-        <v>1</v>
-      </c>
-      <c r="O3" s="66">
-        <v>1</v>
-      </c>
-      <c r="P3" s="66">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="66">
-        <v>1</v>
-      </c>
-      <c r="R3" s="66">
-        <v>1</v>
-      </c>
-      <c r="S3" s="66">
-        <v>0</v>
-      </c>
-      <c r="T3" s="66">
-        <v>0</v>
-      </c>
-      <c r="U3" s="66">
-        <v>0</v>
-      </c>
-      <c r="V3" s="66">
-        <v>1</v>
-      </c>
-      <c r="W3" s="66">
-        <v>1</v>
-      </c>
-      <c r="X3" s="66">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="66">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="66">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="66">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="66">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CB3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CE3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CK3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CL3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CS3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CW3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CX3" s="66">
-        <v>1</v>
-      </c>
-      <c r="CY3" s="66">
-        <v>0</v>
-      </c>
-      <c r="CZ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="DA3" s="66">
-        <v>0</v>
-      </c>
-      <c r="DB3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="66">
-        <v>0</v>
-      </c>
-      <c r="DD3" s="66">
-        <v>0</v>
-      </c>
-      <c r="DE3" s="66">
-        <v>0</v>
-      </c>
-      <c r="DF3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DG3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DH3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DI3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DJ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DK3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DL3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DM3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DN3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DO3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DP3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DQ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DR3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DS3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DT3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DU3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="66">
-        <v>1</v>
-      </c>
-      <c r="DZ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EB3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="66">
-        <v>1</v>
-      </c>
-      <c r="ED3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EE3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EH3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EL3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EP3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EQ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="ER3" s="66">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="66">
-        <v>0</v>
-      </c>
-      <c r="ET3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EU3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EV3" s="66">
-        <v>0</v>
-      </c>
-      <c r="EW3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EX3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EY3" s="66">
-        <v>1</v>
-      </c>
-      <c r="EZ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FA3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FB3" s="66">
-        <v>0</v>
-      </c>
-      <c r="FC3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FD3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FE3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FF3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FG3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FH3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FI3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FJ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FK3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="66">
-        <v>0</v>
-      </c>
-      <c r="FV3" s="66">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="66">
-        <v>0</v>
-      </c>
-      <c r="FX3" s="66">
-        <v>0</v>
-      </c>
-      <c r="FY3" s="66">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GC3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GD3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GE3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GF3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GG3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GH3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GI3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GJ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GK3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GL3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GM3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GN3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GO3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GP3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GQ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GR3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GS3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GT3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GU3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GV3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GW3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GX3" s="66">
-        <v>0</v>
-      </c>
-      <c r="GY3" s="66">
-        <v>1</v>
-      </c>
-      <c r="GZ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HA3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HB3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HC3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HD3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HE3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HF3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HG3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HH3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HI3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HJ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HK3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HL3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HM3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HN3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HO3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HP3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HQ3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HR3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HS3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HT3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HU3" s="66">
-        <v>1</v>
-      </c>
-      <c r="HV3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HW3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HX3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HY3" s="66">
-        <v>0</v>
-      </c>
-      <c r="HZ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="IA3" s="66">
+      <c r="V27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="I25:V25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:AD13"/>
+    <mergeCell ref="AF13:AK13"/>
+    <mergeCell ref="AM13:AU13"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="A19:W19"/>
+    <mergeCell ref="Y19:AH19"/>
+    <mergeCell ref="AJ19:AN19"/>
+    <mergeCell ref="AP19:AS19"/>
+    <mergeCell ref="AU19:AZ19"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="U1:AE1"/>
+    <mergeCell ref="AG1:AT1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Z7:AS7"/>
+    <mergeCell ref="AU7:AY7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -13620,7 +13254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E898083-0131-4F7A-97E2-C00295B7DB7F}">
   <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14341,7 +13977,7 @@
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="71" t="s">
+      <c r="A143" s="58" t="s">
         <v>80</v>
       </c>
     </row>
@@ -14426,6 +14062,1471 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C15B592-8E12-4D2A-AC89-88814968A1B5}">
+  <dimension ref="A1:C132"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>89.5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>8211.3857142857105</v>
+      </c>
+      <c r="C1" s="1">
+        <v>95.711933333333405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>98.395238095238099</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9020.3952380952396</v>
+      </c>
+      <c r="C2" s="1">
+        <v>47.983509523809502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>116.50476190476201</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9857.9857142857109</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41.079771428571398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>116.50476190476201</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9920.1047619047604</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41.048438095238097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>115.00476190476201</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9994.1476190476205</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41.452938095238103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>115.07619047619001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9834.0285714285692</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41.304780952381002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>115.07619047619001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9827.1333333333296</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41.309980952380997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>110.54761904761899</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10263.4619047619</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42.0731857142857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>111.866666666667</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10339.180952381001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42.040709523809497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>110.54761904761899</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10228.319047618999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42.0731857142857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>99.347619047619105</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7357.9523809523798</v>
+      </c>
+      <c r="C11" s="1">
+        <v>76.365733333333296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>99.047619047619094</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7392.7190476190499</v>
+      </c>
+      <c r="C12" s="1">
+        <v>68.123680952380994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7998.6238095238105</v>
+      </c>
+      <c r="C13" s="1">
+        <v>88.343476190476196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>99.347619047619105</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7608.8333333333303</v>
+      </c>
+      <c r="C14" s="1">
+        <v>54.695804761904803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>99.404761904761898</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7626.0666666666702</v>
+      </c>
+      <c r="C15" s="1">
+        <v>54.681185714285697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>99.347619047619105</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7580.24761904762</v>
+      </c>
+      <c r="C16" s="1">
+        <v>59.090733333333297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>99.347619047619105</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7660.9619047618999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>54.686852380952402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>99.404761904761898</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7684.6047619047604</v>
+      </c>
+      <c r="C18" s="1">
+        <v>54.669785714285702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>99.214285714285694</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7769.6285714285696</v>
+      </c>
+      <c r="C19" s="1">
+        <v>60.1269285714286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>99.214285714285694</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7769.6285714285696</v>
+      </c>
+      <c r="C20" s="1">
+        <v>60.1269285714286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7870.5714285714303</v>
+      </c>
+      <c r="C21" s="1">
+        <v>90.410761904761898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>90.1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7344.9380952380898</v>
+      </c>
+      <c r="C22" s="1">
+        <v>92.359476190476201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7491.8619047619104</v>
+      </c>
+      <c r="C23" s="1">
+        <v>79.738047619047606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>96.071428571428598</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7798.9142857142897</v>
+      </c>
+      <c r="C24" s="1">
+        <v>71.9619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>95.571428571428598</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7825.8523809523804</v>
+      </c>
+      <c r="C25" s="1">
+        <v>66.624066666666707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>96.071428571428598</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7768.4333333333398</v>
+      </c>
+      <c r="C26" s="1">
+        <v>72.243809523809503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>99.347619047619105</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7777.6571428571397</v>
+      </c>
+      <c r="C27" s="1">
+        <v>54.6788047619048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>95.571428571428598</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7936.7380952381</v>
+      </c>
+      <c r="C28" s="1">
+        <v>62.684800000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>96.571428571428598</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7689.1095238095204</v>
+      </c>
+      <c r="C29" s="1">
+        <v>72.253590476190496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>96.571428571428598</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7710.1142857142904</v>
+      </c>
+      <c r="C30" s="1">
+        <v>72.215590476190499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>96.071428571428598</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7700.3476190476204</v>
+      </c>
+      <c r="C31" s="1">
+        <v>73.063228571428596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>108.30952380952399</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10041.271428571399</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43.173728571428597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8202.0666666666693</v>
+      </c>
+      <c r="C33" s="1">
+        <v>60.037257142857101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8229.9285714285706</v>
+      </c>
+      <c r="C34" s="1">
+        <v>66.733771428571401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>97.371428571428595</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8001.0523809523802</v>
+      </c>
+      <c r="C35" s="1">
+        <v>48.037690476190498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>96.476190476190496</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8529.2000000000007</v>
+      </c>
+      <c r="C36" s="1">
+        <v>49.493580952381002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7476.9857142857099</v>
+      </c>
+      <c r="C37" s="1">
+        <v>90.069076190476196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7870.0904761904803</v>
+      </c>
+      <c r="C38" s="1">
+        <v>56.712147619047599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7405.8619047619104</v>
+      </c>
+      <c r="C39" s="1">
+        <v>91.288047619047603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7462.2761904761901</v>
+      </c>
+      <c r="C40" s="1">
+        <v>90.479076190476206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7953.9809523809499</v>
+      </c>
+      <c r="C41" s="1">
+        <v>55.731985714285699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7458.6142857142804</v>
+      </c>
+      <c r="C42" s="1">
+        <v>91.622504761904807</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8239.6904761904807</v>
+      </c>
+      <c r="C43" s="1">
+        <v>60.439985714285697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8183.8571428571404</v>
+      </c>
+      <c r="C44" s="1">
+        <v>60.851419047618997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7501.6523809523796</v>
+      </c>
+      <c r="C45" s="1">
+        <v>77.182980952380902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>110.166666666667</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9750.8714285714304</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43.500261904761899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8236.0714285714294</v>
+      </c>
+      <c r="C47" s="1">
+        <v>60.833819047619002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8271.26190476191</v>
+      </c>
+      <c r="C48" s="1">
+        <v>54.750057142857102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8270.26190476191</v>
+      </c>
+      <c r="C49" s="1">
+        <v>54.755057142857098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>96.071428571428598</v>
+      </c>
+      <c r="B50" s="1">
+        <v>7660.9095238095297</v>
+      </c>
+      <c r="C50" s="1">
+        <v>74.880614285714302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8006.3809523809496</v>
+      </c>
+      <c r="C51" s="1">
+        <v>55.690185714285697</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7615.6238095238105</v>
+      </c>
+      <c r="C52" s="1">
+        <v>77.156647619047604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8213.4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>54.777257142857103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8213.4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>54.777257142857103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8348.2857142857101</v>
+      </c>
+      <c r="C55" s="1">
+        <v>48.159680952381002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>90.6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7509.9095238095197</v>
+      </c>
+      <c r="C56" s="1">
+        <v>91.614904761904796</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>94</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8184.8809523809496</v>
+      </c>
+      <c r="C57" s="1">
+        <v>67.900557142857096</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>94.3</v>
+      </c>
+      <c r="B58" s="1">
+        <v>7852.8714285714304</v>
+      </c>
+      <c r="C58" s="1">
+        <v>72.130438095238105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B59" s="1">
+        <v>8330.4285714285706</v>
+      </c>
+      <c r="C59" s="1">
+        <v>58.277580952381001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>94.047619047619094</v>
+      </c>
+      <c r="B60" s="1">
+        <v>8295.0238095238092</v>
+      </c>
+      <c r="C60" s="1">
+        <v>58.312342857142902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8011.5809523809503</v>
+      </c>
+      <c r="C61" s="1">
+        <v>54.5510190476191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>96.476190476190496</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8462.2380952381009</v>
+      </c>
+      <c r="C62" s="1">
+        <v>49.502580952381003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8338.6523809523806</v>
+      </c>
+      <c r="C63" s="1">
+        <v>48.407395238095198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7418.2904761904701</v>
+      </c>
+      <c r="C64" s="1">
+        <v>90.604076190476206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="B65" s="1">
+        <v>7370.6142857142804</v>
+      </c>
+      <c r="C65" s="1">
+        <v>91.571476190476204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="B66" s="1">
+        <v>7415.5761904761903</v>
+      </c>
+      <c r="C66" s="1">
+        <v>90.749076190476202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>97.371428571428595</v>
+      </c>
+      <c r="B67" s="1">
+        <v>7990.8</v>
+      </c>
+      <c r="C67" s="1">
+        <v>53.973580952380999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>108.904761904762</v>
+      </c>
+      <c r="B68" s="1">
+        <v>9841.2999999999993</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43.560519047619003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>108.904761904762</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9841.2999999999993</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43.560519047619003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>96</v>
+      </c>
+      <c r="B70" s="1">
+        <v>8413.6047619047604</v>
+      </c>
+      <c r="C70" s="1">
+        <v>49.518895238095197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>97.309523809523796</v>
+      </c>
+      <c r="B71" s="1">
+        <v>8168.1714285714297</v>
+      </c>
+      <c r="C71" s="1">
+        <v>49.6735714285714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7797.5333333333401</v>
+      </c>
+      <c r="C72" s="1">
+        <v>76.921485714285694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>106.619047619048</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9721.2619047618991</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43.650304761904799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>106.619047619048</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9721.2619047618991</v>
+      </c>
+      <c r="C74" s="1">
+        <v>43.650304761904799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8151.50476190476</v>
+      </c>
+      <c r="C75" s="1">
+        <v>49.746042857142903</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>95.3</v>
+      </c>
+      <c r="B76" s="1">
+        <v>8156.0523809523802</v>
+      </c>
+      <c r="C76" s="1">
+        <v>69.858519047618998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8166.26190476191</v>
+      </c>
+      <c r="C77" s="1">
+        <v>49.722971428571398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>107.5</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9272.3952380952396</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45.108371428571402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>106.619047619048</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9716.2333333333299</v>
+      </c>
+      <c r="C79" s="1">
+        <v>43.6753761904762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="B80" s="1">
+        <v>8168</v>
+      </c>
+      <c r="C80" s="1">
+        <v>49.721638095238099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>108.904761904762</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9787.8285714285703</v>
+      </c>
+      <c r="C81" s="1">
+        <v>43.568385714285697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>96</v>
+      </c>
+      <c r="B82" s="1">
+        <v>8366.1428571428605</v>
+      </c>
+      <c r="C82" s="1">
+        <v>53.457914285714303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="B83" s="1">
+        <v>8215.4809523809508</v>
+      </c>
+      <c r="C83" s="1">
+        <v>48.666638095238099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>108.904761904762</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9267.5571428571402</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45.1860619047619</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>94.233333333333306</v>
+      </c>
+      <c r="B85" s="1">
+        <v>7973.8666666666704</v>
+      </c>
+      <c r="C85" s="1">
+        <v>72.130438095238105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7560.5190476190501</v>
+      </c>
+      <c r="C86" s="1">
+        <v>88.976647619047597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>96.776190476190493</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8146.9619047619099</v>
+      </c>
+      <c r="C87" s="1">
+        <v>55.333266666666702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>8069.9523809523798</v>
+      </c>
+      <c r="C88" s="1">
+        <v>54.495519047619098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>97.095238095238102</v>
+      </c>
+      <c r="B89" s="1">
+        <v>8392.6428571428605</v>
+      </c>
+      <c r="C89" s="1">
+        <v>52.041914285714299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>108.833333333333</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9269.3952380952396</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45.109704761904801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>96</v>
+      </c>
+      <c r="B91" s="1">
+        <v>8301.9285714285706</v>
+      </c>
+      <c r="C91" s="1">
+        <v>53.5169142857143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>106.54761904761899</v>
+      </c>
+      <c r="B92" s="1">
+        <v>9658.3095238095193</v>
+      </c>
+      <c r="C92" s="1">
+        <v>43.741185714285699</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>96</v>
+      </c>
+      <c r="B93" s="1">
+        <v>8237.7857142857101</v>
+      </c>
+      <c r="C93" s="1">
+        <v>54.750057142857102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>96</v>
+      </c>
+      <c r="B94" s="1">
+        <v>8296.26190476191</v>
+      </c>
+      <c r="C94" s="1">
+        <v>54.426914285714297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="B95" s="1">
+        <v>8139.1238095238105</v>
+      </c>
+      <c r="C95" s="1">
+        <v>54.072566666666702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B96" s="1">
+        <v>8018.1095238095304</v>
+      </c>
+      <c r="C96" s="1">
+        <v>76.778690476190505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>110</v>
+      </c>
+      <c r="B97" s="1">
+        <v>9435.4619047618999</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43.6239428571429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>92.1666666666667</v>
+      </c>
+      <c r="B98" s="1">
+        <v>8253.1476190476205</v>
+      </c>
+      <c r="C98" s="1">
+        <v>74.140147619047596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>93.571428571428598</v>
+      </c>
+      <c r="B99" s="1">
+        <v>8060.4666666666699</v>
+      </c>
+      <c r="C99" s="1">
+        <v>76.738614285714306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>7500.0761904761903</v>
+      </c>
+      <c r="C100" s="1">
+        <v>89.844076190476201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="B101" s="1">
+        <v>7500.0761904761903</v>
+      </c>
+      <c r="C101" s="1">
+        <v>89.844076190476201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B102" s="1">
+        <v>8346.1809523809497</v>
+      </c>
+      <c r="C102" s="1">
+        <v>72.048028571428603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B103" s="1">
+        <v>8067.7047619047598</v>
+      </c>
+      <c r="C103" s="1">
+        <v>76.736880952380901</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>94</v>
+      </c>
+      <c r="B104" s="1">
+        <v>8054.9047619047597</v>
+      </c>
+      <c r="C104" s="1">
+        <v>76.565557142857102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>92.6666666666667</v>
+      </c>
+      <c r="B105" s="1">
+        <v>8303.6333333333405</v>
+      </c>
+      <c r="C105" s="1">
+        <v>73.244147619047595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>93.714285714285694</v>
+      </c>
+      <c r="B106" s="1">
+        <v>8076.9523809523798</v>
+      </c>
+      <c r="C106" s="1">
+        <v>76.398690476190495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>93.714285714285694</v>
+      </c>
+      <c r="B107" s="1">
+        <v>8076.9523809523798</v>
+      </c>
+      <c r="C107" s="1">
+        <v>76.398690476190495</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>108.166666666667</v>
+      </c>
+      <c r="B108" s="1">
+        <v>9423.7619047618991</v>
+      </c>
+      <c r="C108" s="1">
+        <v>43.643609523809502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>107.238095238095</v>
+      </c>
+      <c r="B109" s="1">
+        <v>9645.4761904761908</v>
+      </c>
+      <c r="C109" s="1">
+        <v>43.734709523809499</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>94</v>
+      </c>
+      <c r="B110" s="1">
+        <v>8176</v>
+      </c>
+      <c r="C110" s="1">
+        <v>71.778557142857096</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>93.714285714285694</v>
+      </c>
+      <c r="B111" s="1">
+        <v>8083.4666666666699</v>
+      </c>
+      <c r="C111" s="1">
+        <v>76.358614285714296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>94</v>
+      </c>
+      <c r="B112" s="1">
+        <v>8173.4333333333298</v>
+      </c>
+      <c r="C112" s="1">
+        <v>73.4878619047619</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>92.6666666666667</v>
+      </c>
+      <c r="B113" s="1">
+        <v>8274.3238095238103</v>
+      </c>
+      <c r="C113" s="1">
+        <v>73.467823809523793</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>108.904761904762</v>
+      </c>
+      <c r="B114" s="1">
+        <v>9584.3047619047593</v>
+      </c>
+      <c r="C114" s="1">
+        <v>43.578385714285702</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>108.166666666667</v>
+      </c>
+      <c r="B115" s="1">
+        <v>9404.0619047619002</v>
+      </c>
+      <c r="C115" s="1">
+        <v>43.643609523809502</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B116" s="1">
+        <v>8148.50952380952</v>
+      </c>
+      <c r="C116" s="1">
+        <v>73.527461904761907</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>107.404761904762</v>
+      </c>
+      <c r="B117" s="1">
+        <v>9546.3380952380903</v>
+      </c>
+      <c r="C117" s="1">
+        <v>43.7290428571429</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B118" s="1">
+        <v>8162.9190476190497</v>
+      </c>
+      <c r="C118" s="1">
+        <v>73.494390476190503</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B119" s="1">
+        <v>8303.6523809523806</v>
+      </c>
+      <c r="C119" s="1">
+        <v>72.790428571428606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B120" s="1">
+        <v>8114.0809523809503</v>
+      </c>
+      <c r="C120" s="1">
+        <v>73.702604761904794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B121" s="1">
+        <v>8110.0809523809503</v>
+      </c>
+      <c r="C121" s="1">
+        <v>73.7216047619048</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B122" s="1">
+        <v>8099.5476190476202</v>
+      </c>
+      <c r="C122" s="1">
+        <v>73.7734047619048</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>108.21428571428601</v>
+      </c>
+      <c r="B123" s="1">
+        <v>9476.2952380952393</v>
+      </c>
+      <c r="C123" s="1">
+        <v>43.589614285714298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>93.571428571428598</v>
+      </c>
+      <c r="B124" s="1">
+        <v>8175.6619047619097</v>
+      </c>
+      <c r="C124" s="1">
+        <v>73.434871428571398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>108.166666666667</v>
+      </c>
+      <c r="B125" s="1">
+        <v>9492.9428571428507</v>
+      </c>
+      <c r="C125" s="1">
+        <v>43.624609523809497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>93.6666666666667</v>
+      </c>
+      <c r="B126" s="1">
+        <v>8249.76190476191</v>
+      </c>
+      <c r="C126" s="1">
+        <v>73.4343476190476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>108.166666666667</v>
+      </c>
+      <c r="B127" s="1">
+        <v>9498.8095238095193</v>
+      </c>
+      <c r="C127" s="1">
+        <v>43.624609523809497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>108.166666666667</v>
+      </c>
+      <c r="B128" s="1">
+        <v>9499.3333333333303</v>
+      </c>
+      <c r="C128" s="1">
+        <v>43.591466666666697</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>108.166666666667</v>
+      </c>
+      <c r="B129" s="1">
+        <v>9499.3333333333303</v>
+      </c>
+      <c r="C129" s="1">
+        <v>43.591466666666697</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <f>MIN(A1:A129)</f>
+        <v>89.5</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" ref="B131:C131" si="0">MIN(B1:B129)</f>
+        <v>7344.9380952380898</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="0"/>
+        <v>41.048438095238097</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <f>MAX(A1:A129)</f>
+        <v>116.50476190476201</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" ref="B132:C132" si="1">MAX(B1:B129)</f>
+        <v>10339.180952381001</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="1"/>
+        <v>95.711933333333405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F629A2B1-03D6-4D38-AC27-EB4A89E5D03D}">
   <dimension ref="A1:FC37"/>
   <sheetViews>
@@ -14450,192 +15551,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:159" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="91" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="76" t="s">
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="91" t="s">
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="76" t="s">
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="91" t="s">
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="BD1" s="91"/>
-      <c r="BE1" s="91"/>
-      <c r="BF1" s="91"/>
-      <c r="BG1" s="91"/>
-      <c r="BH1" s="91"/>
-      <c r="BI1" s="91"/>
-      <c r="BJ1" s="91"/>
-      <c r="BK1" s="91"/>
-      <c r="BL1" s="76" t="s">
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="BM1" s="76"/>
-      <c r="BN1" s="76"/>
-      <c r="BO1" s="76"/>
-      <c r="BP1" s="76"/>
-      <c r="BQ1" s="76"/>
-      <c r="BR1" s="76"/>
-      <c r="BS1" s="76"/>
-      <c r="BT1" s="76"/>
-      <c r="BU1" s="91" t="s">
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="81"/>
+      <c r="BO1" s="81"/>
+      <c r="BP1" s="81"/>
+      <c r="BQ1" s="81"/>
+      <c r="BR1" s="81"/>
+      <c r="BS1" s="81"/>
+      <c r="BT1" s="81"/>
+      <c r="BU1" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="BV1" s="91"/>
-      <c r="BW1" s="91"/>
-      <c r="BX1" s="91"/>
-      <c r="BY1" s="91"/>
-      <c r="BZ1" s="91"/>
-      <c r="CA1" s="91"/>
-      <c r="CB1" s="91"/>
-      <c r="CC1" s="91"/>
-      <c r="CD1" s="91"/>
-      <c r="CE1" s="91"/>
-      <c r="CF1" s="91"/>
-      <c r="CG1" s="76" t="s">
+      <c r="BV1" s="96"/>
+      <c r="BW1" s="96"/>
+      <c r="BX1" s="96"/>
+      <c r="BY1" s="96"/>
+      <c r="BZ1" s="96"/>
+      <c r="CA1" s="96"/>
+      <c r="CB1" s="96"/>
+      <c r="CC1" s="96"/>
+      <c r="CD1" s="96"/>
+      <c r="CE1" s="96"/>
+      <c r="CF1" s="96"/>
+      <c r="CG1" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="CH1" s="76"/>
-      <c r="CI1" s="76"/>
-      <c r="CJ1" s="76"/>
-      <c r="CK1" s="76"/>
-      <c r="CL1" s="76"/>
-      <c r="CM1" s="76"/>
-      <c r="CN1" s="76"/>
-      <c r="CO1" s="76"/>
-      <c r="CP1" s="76"/>
-      <c r="CQ1" s="76"/>
-      <c r="CR1" s="76"/>
-      <c r="CS1" s="91" t="s">
+      <c r="CH1" s="81"/>
+      <c r="CI1" s="81"/>
+      <c r="CJ1" s="81"/>
+      <c r="CK1" s="81"/>
+      <c r="CL1" s="81"/>
+      <c r="CM1" s="81"/>
+      <c r="CN1" s="81"/>
+      <c r="CO1" s="81"/>
+      <c r="CP1" s="81"/>
+      <c r="CQ1" s="81"/>
+      <c r="CR1" s="81"/>
+      <c r="CS1" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="CT1" s="91"/>
-      <c r="CU1" s="91"/>
-      <c r="CV1" s="91"/>
-      <c r="CW1" s="91"/>
-      <c r="CX1" s="91"/>
-      <c r="CY1" s="91"/>
-      <c r="CZ1" s="91"/>
-      <c r="DA1" s="91"/>
-      <c r="DB1" s="91"/>
-      <c r="DC1" s="91"/>
-      <c r="DD1" s="91"/>
-      <c r="DE1" s="76" t="s">
+      <c r="CT1" s="96"/>
+      <c r="CU1" s="96"/>
+      <c r="CV1" s="96"/>
+      <c r="CW1" s="96"/>
+      <c r="CX1" s="96"/>
+      <c r="CY1" s="96"/>
+      <c r="CZ1" s="96"/>
+      <c r="DA1" s="96"/>
+      <c r="DB1" s="96"/>
+      <c r="DC1" s="96"/>
+      <c r="DD1" s="96"/>
+      <c r="DE1" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="DF1" s="76"/>
-      <c r="DG1" s="76"/>
-      <c r="DH1" s="76"/>
-      <c r="DI1" s="76"/>
-      <c r="DJ1" s="76"/>
-      <c r="DK1" s="76"/>
-      <c r="DL1" s="76"/>
-      <c r="DM1" s="76"/>
-      <c r="DN1" s="76"/>
-      <c r="DO1" s="76"/>
-      <c r="DP1" s="76"/>
-      <c r="DQ1" s="91" t="s">
+      <c r="DF1" s="81"/>
+      <c r="DG1" s="81"/>
+      <c r="DH1" s="81"/>
+      <c r="DI1" s="81"/>
+      <c r="DJ1" s="81"/>
+      <c r="DK1" s="81"/>
+      <c r="DL1" s="81"/>
+      <c r="DM1" s="81"/>
+      <c r="DN1" s="81"/>
+      <c r="DO1" s="81"/>
+      <c r="DP1" s="81"/>
+      <c r="DQ1" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="DR1" s="91"/>
-      <c r="DS1" s="91"/>
-      <c r="DT1" s="91"/>
-      <c r="DU1" s="91"/>
-      <c r="DV1" s="91"/>
-      <c r="DW1" s="91"/>
-      <c r="DX1" s="91"/>
-      <c r="DY1" s="91"/>
-      <c r="DZ1" s="91"/>
-      <c r="EA1" s="91"/>
-      <c r="EB1" s="91"/>
-      <c r="EC1" s="76" t="s">
+      <c r="DR1" s="96"/>
+      <c r="DS1" s="96"/>
+      <c r="DT1" s="96"/>
+      <c r="DU1" s="96"/>
+      <c r="DV1" s="96"/>
+      <c r="DW1" s="96"/>
+      <c r="DX1" s="96"/>
+      <c r="DY1" s="96"/>
+      <c r="DZ1" s="96"/>
+      <c r="EA1" s="96"/>
+      <c r="EB1" s="96"/>
+      <c r="EC1" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="ED1" s="76"/>
-      <c r="EE1" s="76"/>
-      <c r="EF1" s="76"/>
-      <c r="EG1" s="76"/>
-      <c r="EH1" s="76"/>
-      <c r="EI1" s="76"/>
-      <c r="EJ1" s="76"/>
-      <c r="EK1" s="76"/>
-      <c r="EL1" s="76"/>
-      <c r="EM1" s="76"/>
-      <c r="EN1" s="91" t="s">
+      <c r="ED1" s="81"/>
+      <c r="EE1" s="81"/>
+      <c r="EF1" s="81"/>
+      <c r="EG1" s="81"/>
+      <c r="EH1" s="81"/>
+      <c r="EI1" s="81"/>
+      <c r="EJ1" s="81"/>
+      <c r="EK1" s="81"/>
+      <c r="EL1" s="81"/>
+      <c r="EM1" s="81"/>
+      <c r="EN1" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="EO1" s="91"/>
-      <c r="EP1" s="91"/>
-      <c r="EQ1" s="91"/>
-      <c r="ER1" s="91"/>
-      <c r="ES1" s="91"/>
-      <c r="ET1" s="91"/>
-      <c r="EU1" s="91"/>
-      <c r="EV1" s="91"/>
-      <c r="EW1" s="91"/>
-      <c r="EX1" s="91"/>
-      <c r="EY1" s="91"/>
-      <c r="EZ1" s="91"/>
-      <c r="FA1" s="91"/>
-      <c r="FB1" s="91"/>
-      <c r="FC1" s="91"/>
+      <c r="EO1" s="96"/>
+      <c r="EP1" s="96"/>
+      <c r="EQ1" s="96"/>
+      <c r="ER1" s="96"/>
+      <c r="ES1" s="96"/>
+      <c r="ET1" s="96"/>
+      <c r="EU1" s="96"/>
+      <c r="EV1" s="96"/>
+      <c r="EW1" s="96"/>
+      <c r="EX1" s="96"/>
+      <c r="EY1" s="96"/>
+      <c r="EZ1" s="96"/>
+      <c r="FA1" s="96"/>
+      <c r="FB1" s="96"/>
+      <c r="FC1" s="96"/>
     </row>
     <row r="2" spans="1:159" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
@@ -14686,7 +15787,7 @@
       <c r="Q2" s="2">
         <v>16</v>
       </c>
-      <c r="R2" s="72">
+      <c r="R2" s="66">
         <v>17</v>
       </c>
       <c r="S2" s="2">
@@ -14713,7 +15814,7 @@
       <c r="Z2" s="2">
         <v>25</v>
       </c>
-      <c r="AA2" s="72">
+      <c r="AA2" s="66">
         <v>26</v>
       </c>
       <c r="AB2" s="2">
@@ -14740,7 +15841,7 @@
       <c r="AI2" s="2">
         <v>34</v>
       </c>
-      <c r="AJ2" s="72">
+      <c r="AJ2" s="66">
         <v>35</v>
       </c>
       <c r="AK2" s="2">
@@ -14767,7 +15868,7 @@
       <c r="AR2" s="2">
         <v>43</v>
       </c>
-      <c r="AS2" s="72">
+      <c r="AS2" s="66">
         <v>44</v>
       </c>
       <c r="AT2" s="2">
@@ -14794,7 +15895,7 @@
       <c r="BA2" s="2">
         <v>52</v>
       </c>
-      <c r="BB2" s="72">
+      <c r="BB2" s="66">
         <v>53</v>
       </c>
       <c r="BC2" s="2">
@@ -14821,7 +15922,7 @@
       <c r="BJ2" s="2">
         <v>61</v>
       </c>
-      <c r="BK2" s="72">
+      <c r="BK2" s="66">
         <v>62</v>
       </c>
       <c r="BL2" s="2">
@@ -14848,7 +15949,7 @@
       <c r="BS2" s="2">
         <v>70</v>
       </c>
-      <c r="BT2" s="72">
+      <c r="BT2" s="66">
         <v>71</v>
       </c>
       <c r="BU2" s="2">
@@ -14884,7 +15985,7 @@
       <c r="CE2" s="2">
         <v>82</v>
       </c>
-      <c r="CF2" s="72">
+      <c r="CF2" s="66">
         <v>83</v>
       </c>
       <c r="CG2" s="2">
@@ -14920,7 +16021,7 @@
       <c r="CQ2" s="2">
         <v>94</v>
       </c>
-      <c r="CR2" s="72">
+      <c r="CR2" s="66">
         <v>95</v>
       </c>
       <c r="CS2" s="2">
@@ -14956,7 +16057,7 @@
       <c r="DC2" s="2">
         <v>106</v>
       </c>
-      <c r="DD2" s="72">
+      <c r="DD2" s="66">
         <v>107</v>
       </c>
       <c r="DE2" s="2">
@@ -24715,10 +25816,10 @@
       <c r="H24" s="1">
         <v>17</v>
       </c>
-      <c r="I24" s="83" t="s">
+      <c r="I24" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="83"/>
+      <c r="J24" s="88"/>
       <c r="K24" s="1">
         <v>1</v>
       </c>
@@ -24746,10 +25847,10 @@
       <c r="H25" s="1">
         <v>9</v>
       </c>
-      <c r="I25" s="88" t="s">
+      <c r="I25" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="88"/>
+      <c r="J25" s="93"/>
       <c r="K25" s="1">
         <f>L24+1</f>
         <v>18</v>
@@ -24790,10 +25891,10 @@
       <c r="H26" s="1">
         <v>9</v>
       </c>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="89"/>
+      <c r="J26" s="94"/>
       <c r="K26" s="1">
         <f t="shared" ref="K26:K37" si="0">L25+1</f>
         <v>27</v>
@@ -24822,10 +25923,10 @@
       <c r="H27" s="1">
         <v>9</v>
       </c>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="90"/>
+      <c r="J27" s="95"/>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -24851,10 +25952,10 @@
       <c r="H28" s="1">
         <v>9</v>
       </c>
-      <c r="I28" s="73" t="s">
+      <c r="I28" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="73"/>
+      <c r="J28" s="78"/>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -24886,10 +25987,10 @@
       <c r="H29" s="1">
         <v>9</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="73"/>
+      <c r="J29" s="78"/>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -24915,10 +26016,10 @@
       <c r="H30" s="1">
         <v>9</v>
       </c>
-      <c r="I30" s="73" t="s">
+      <c r="I30" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="73"/>
+      <c r="J30" s="78"/>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -24956,10 +26057,10 @@
       <c r="H31" s="1">
         <v>12</v>
       </c>
-      <c r="I31" s="86" t="s">
+      <c r="I31" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="86"/>
+      <c r="J31" s="91"/>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -24988,10 +26089,10 @@
       <c r="H32" s="1">
         <v>12</v>
       </c>
-      <c r="I32" s="87" t="s">
+      <c r="I32" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="92"/>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -25017,10 +26118,10 @@
       <c r="H33" s="1">
         <v>12</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="73"/>
+      <c r="J33" s="78"/>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
@@ -25055,10 +26156,10 @@
       <c r="H34" s="1">
         <v>12</v>
       </c>
-      <c r="I34" s="73" t="s">
+      <c r="I34" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="73"/>
+      <c r="J34" s="78"/>
       <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -25078,10 +26179,10 @@
       <c r="H35" s="1">
         <v>12</v>
       </c>
-      <c r="I35" s="73" t="s">
+      <c r="I35" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="73"/>
+      <c r="J35" s="78"/>
       <c r="K35" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -25119,10 +26220,10 @@
       <c r="H36" s="1">
         <v>11</v>
       </c>
-      <c r="I36" s="84" t="s">
+      <c r="I36" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="84"/>
+      <c r="J36" s="89"/>
       <c r="K36" s="1">
         <f t="shared" si="0"/>
         <v>132</v>
@@ -25154,10 +26255,10 @@
       <c r="H37" s="1">
         <v>16</v>
       </c>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="85"/>
+      <c r="J37" s="90"/>
       <c r="K37" s="1">
         <f t="shared" si="0"/>
         <v>143</v>
